--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/全国食品类居民消费价格指数(上年同期=100).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/全国食品类居民消费价格指数(上年同期=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,605 +478,605 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>101.8</v>
-      </c>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>82.40000000000001</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>105.4</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.8</v>
+        <v>98.3</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>98.3</v>
+        <v>94.8</v>
       </c>
       <c r="F3" t="n">
-        <v>83.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="G3" t="n">
-        <v>97.2</v>
+        <v>97.8</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>105.5</v>
+        <v>130.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.7</v>
+        <v>99.2</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>88.59999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="E4" t="n">
-        <v>98.5</v>
+        <v>95</v>
       </c>
       <c r="F4" t="n">
-        <v>84.5</v>
+        <v>76.8</v>
       </c>
       <c r="G4" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>105.5</v>
+        <v>128.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2000-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100.6</v>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>87</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>76.90000000000001</v>
+      </c>
       <c r="G5" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>121.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.3</v>
+        <v>101.7</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>87.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="E6" t="n">
-        <v>94.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="G6" t="n">
-        <v>97.8</v>
+        <v>97</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>130.8</v>
+        <v>115.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.2</v>
+        <v>102.2</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>87.2</v>
+        <v>86.8</v>
       </c>
       <c r="E7" t="n">
-        <v>95</v>
+        <v>98.7</v>
       </c>
       <c r="F7" t="n">
-        <v>76.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>97.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>128.2</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.6</v>
+        <v>102.4</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>87</v>
+        <v>86.7</v>
       </c>
       <c r="E8" t="n">
-        <v>96.3</v>
+        <v>99.2</v>
       </c>
       <c r="F8" t="n">
-        <v>76.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="G8" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>121.3</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101.7</v>
+        <v>102.3</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>86.8</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>97.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="F9" t="n">
-        <v>77.7</v>
+        <v>80.5</v>
       </c>
       <c r="G9" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>115.9</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>86.8</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>78.09999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="G10" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>112.5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.4</v>
+        <v>101.8</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>86.7</v>
+        <v>87.5</v>
       </c>
       <c r="E11" t="n">
-        <v>99.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>78.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>109.7</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.3</v>
+        <v>101.8</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>86.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="E12" t="n">
-        <v>99</v>
+        <v>98.3</v>
       </c>
       <c r="F12" t="n">
-        <v>80.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="G12" t="n">
         <v>97.2</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>108.4</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.1</v>
+        <v>101.7</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>87.09999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="F13" t="n">
-        <v>81.5</v>
+        <v>84.5</v>
       </c>
       <c r="G13" t="n">
-        <v>97.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>107</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.2</v>
+        <v>102.4971</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>99.09999999999999</v>
+        <v>96.6164</v>
       </c>
       <c r="E14" t="n">
-        <v>101.8</v>
+        <v>102.7517</v>
       </c>
       <c r="F14" t="n">
-        <v>105.7</v>
+        <v>97.4606</v>
       </c>
       <c r="G14" t="n">
-        <v>100.2</v>
+        <v>99.6174</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>102.9</v>
+        <v>95.2313</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>99.3</v>
+        <v>96.7</v>
       </c>
       <c r="E15" t="n">
-        <v>101.7</v>
+        <v>102</v>
       </c>
       <c r="F15" t="n">
-        <v>105.9</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>100.1</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>101.9</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>99.3</v>
+        <v>97</v>
       </c>
       <c r="E16" t="n">
-        <v>101.6</v>
+        <v>102</v>
       </c>
       <c r="F16" t="n">
-        <v>106</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>100</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>101.4</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.4971</v>
+        <v>99</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>96.6164</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>102.7517</v>
+        <v>102.2</v>
       </c>
       <c r="F17" t="n">
-        <v>97.4606</v>
+        <v>100.2</v>
       </c>
       <c r="G17" t="n">
-        <v>99.6174</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>95.2313</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>96.7</v>
+        <v>97.7</v>
       </c>
       <c r="E18" t="n">
-        <v>102</v>
+        <v>102.3</v>
       </c>
       <c r="F18" t="n">
-        <v>97.09999999999999</v>
+        <v>101.6</v>
       </c>
       <c r="G18" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>86.8</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" t="n">
-        <v>102</v>
+        <v>102.3</v>
       </c>
       <c r="F19" t="n">
-        <v>98.40000000000001</v>
+        <v>102.8</v>
       </c>
       <c r="G19" t="n">
-        <v>98.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>88.40000000000001</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99</v>
+        <v>97.5</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>97.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="E20" t="n">
         <v>102.2</v>
       </c>
       <c r="F20" t="n">
-        <v>100.2</v>
+        <v>104.2</v>
       </c>
       <c r="G20" t="n">
-        <v>99.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>92.8</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.2</v>
+        <v>97.3</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>97.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="F21" t="n">
-        <v>101.6</v>
+        <v>104.3</v>
       </c>
       <c r="G21" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>96.3</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3</v>
+        <v>101.9</v>
       </c>
       <c r="F22" t="n">
-        <v>102.8</v>
+        <v>104.9</v>
       </c>
       <c r="G22" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>98.5</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>98.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>102.2</v>
+        <v>101.8</v>
       </c>
       <c r="F23" t="n">
-        <v>104.2</v>
+        <v>105.7</v>
       </c>
       <c r="G23" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>100.8</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>98.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="E24" t="n">
-        <v>102.1</v>
+        <v>101.7</v>
       </c>
       <c r="F24" t="n">
-        <v>104.3</v>
+        <v>105.9</v>
       </c>
       <c r="G24" t="n">
         <v>100.1</v>
@@ -1089,7 +1089,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1097,6956 +1097,6956 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>98.8</v>
+        <v>99.3</v>
       </c>
       <c r="E25" t="n">
-        <v>101.9</v>
+        <v>101.6</v>
       </c>
       <c r="F25" t="n">
-        <v>104.9</v>
+        <v>106</v>
       </c>
       <c r="G25" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>102.5</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>96.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>98.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E26" t="n">
-        <v>99.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F26" t="n">
-        <v>103.6</v>
+        <v>108.4</v>
       </c>
       <c r="G26" t="n">
-        <v>99.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>96.3</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>96.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>98.3</v>
+        <v>99.3</v>
       </c>
       <c r="E27" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="F27" t="n">
-        <v>103.1</v>
+        <v>110.7</v>
       </c>
       <c r="G27" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>97.2</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.7</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>98.3</v>
+        <v>99.2</v>
       </c>
       <c r="E28" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>102.6</v>
+        <v>110.2</v>
       </c>
       <c r="G28" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>98.09999999999999</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>92.8</v>
+        <v>95.8</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>98.2</v>
+        <v>99.8</v>
       </c>
       <c r="F29" t="n">
-        <v>108.4</v>
+        <v>108.9</v>
       </c>
       <c r="G29" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>94.8</v>
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="F30" t="n">
-        <v>110.7</v>
+        <v>108</v>
       </c>
       <c r="G30" t="n">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>96.7</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="F31" t="n">
-        <v>110.2</v>
+        <v>107.5</v>
       </c>
       <c r="G31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>94</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>95.8</v>
+        <v>96</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F32" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="G32" t="n">
         <v>99.09999999999999</v>
-      </c>
-      <c r="E32" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F32" t="n">
-        <v>108.9</v>
-      </c>
-      <c r="G32" t="n">
-        <v>99</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>91.59999999999999</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>95.8</v>
+        <v>96.2</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>99.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>108</v>
+        <v>105.5</v>
       </c>
       <c r="G33" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>91.8</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="E34" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>107.5</v>
+        <v>104.5</v>
       </c>
       <c r="G34" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+        <v>99.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>100</v>
+      </c>
       <c r="I34" t="n">
-        <v>92.90000000000001</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>96</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>98.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E35" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>106.3</v>
+        <v>103.6</v>
       </c>
       <c r="G35" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>93.3</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>96.2</v>
+        <v>96.5</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="E36" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F36" t="n">
-        <v>105.5</v>
+        <v>103.1</v>
       </c>
       <c r="G36" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>94.40000000000001</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="E37" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F37" t="n">
-        <v>104.5</v>
+        <v>102.6</v>
       </c>
       <c r="G37" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="H37" t="n">
-        <v>100</v>
-      </c>
+        <v>99.40000000000001</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>95.3</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.90000000000001</v>
+        <v>99.84</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>100.4</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>101.5</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>95.40000000000001</v>
+        <v>95.94</v>
       </c>
       <c r="G38" t="n">
-        <v>102.4</v>
+        <v>102.38</v>
       </c>
       <c r="H38" t="n">
-        <v>101.9</v>
+        <v>103.9</v>
       </c>
       <c r="I38" t="n">
-        <v>120.6</v>
+        <v>124.19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.1298</v>
+        <v>98.62860000000001</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>101.2967</v>
+        <v>99.4731</v>
       </c>
       <c r="E39" t="n">
-        <v>102.509</v>
+        <v>99.1636</v>
       </c>
       <c r="F39" t="n">
-        <v>97.12990000000001</v>
+        <v>94.00839999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>102.9633</v>
+        <v>102.1076</v>
       </c>
       <c r="H39" t="n">
-        <v>101.9</v>
+        <v>99.7</v>
       </c>
       <c r="I39" t="n">
-        <v>120.5137</v>
+        <v>127.3297</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.3238</v>
+        <v>98.5</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>102.2961</v>
+        <v>99.5</v>
       </c>
       <c r="E40" t="n">
-        <v>103.3141</v>
+        <v>99</v>
       </c>
       <c r="F40" t="n">
-        <v>98.5528</v>
+        <v>93.8</v>
       </c>
       <c r="G40" t="n">
-        <v>103.4331</v>
+        <v>102.5</v>
       </c>
       <c r="H40" t="n">
-        <v>101.8</v>
+        <v>97</v>
       </c>
       <c r="I40" t="n">
-        <v>120.5089</v>
+        <v>134.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.84</v>
+        <v>98.94110000000001</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>99.54000000000001</v>
+        <v>99.5086</v>
       </c>
       <c r="E41" t="n">
-        <v>99.98999999999999</v>
+        <v>99.08799999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>95.94</v>
+        <v>93.8689</v>
       </c>
       <c r="G41" t="n">
-        <v>102.38</v>
+        <v>102.6573</v>
       </c>
       <c r="H41" t="n">
-        <v>103.9</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>124.19</v>
+        <v>136.8462</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.62860000000001</v>
+        <v>98.9329</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>99.4731</v>
+        <v>99.6846</v>
       </c>
       <c r="E42" t="n">
-        <v>99.1636</v>
+        <v>99.1921</v>
       </c>
       <c r="F42" t="n">
-        <v>94.00839999999999</v>
+        <v>93.747</v>
       </c>
       <c r="G42" t="n">
-        <v>102.1076</v>
+        <v>102.4995</v>
       </c>
       <c r="H42" t="n">
-        <v>99.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>127.3297</v>
+        <v>133.3718</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="E43" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>93.8</v>
+        <v>93.2</v>
       </c>
       <c r="G43" t="n">
-        <v>102.5</v>
+        <v>102.2</v>
       </c>
       <c r="H43" t="n">
-        <v>97</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>134.7</v>
+        <v>128.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.94110000000001</v>
+        <v>99.2277</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>99.5086</v>
+        <v>99.89</v>
       </c>
       <c r="E44" t="n">
-        <v>99.08799999999999</v>
+        <v>99.7966</v>
       </c>
       <c r="F44" t="n">
-        <v>93.8689</v>
+        <v>93.14149999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>102.6573</v>
+        <v>101.9967</v>
       </c>
       <c r="H44" t="n">
-        <v>96.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>136.8462</v>
+        <v>124.7018</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.9329</v>
+        <v>99.455</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>99.6846</v>
+        <v>99.95350000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>99.1921</v>
+        <v>100.2522</v>
       </c>
       <c r="F45" t="n">
-        <v>93.747</v>
+        <v>93.5018</v>
       </c>
       <c r="G45" t="n">
-        <v>102.4995</v>
+        <v>102</v>
       </c>
       <c r="H45" t="n">
-        <v>97.90000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="I45" t="n">
-        <v>133.3718</v>
+        <v>122.34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.09999999999999</v>
+        <v>99.72280000000001</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>99.8</v>
+        <v>100.0397</v>
       </c>
       <c r="E46" t="n">
-        <v>99.40000000000001</v>
+        <v>100.7893</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2</v>
+        <v>94.3496</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2</v>
+        <v>102.1525</v>
       </c>
       <c r="H46" t="n">
-        <v>98.90000000000001</v>
+        <v>101.6</v>
       </c>
       <c r="I46" t="n">
-        <v>128.2</v>
+        <v>121.1627</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.2277</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>99.89</v>
+        <v>100.4</v>
       </c>
       <c r="E47" t="n">
-        <v>99.7966</v>
+        <v>101.5</v>
       </c>
       <c r="F47" t="n">
-        <v>93.14149999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>101.9967</v>
+        <v>102.4</v>
       </c>
       <c r="H47" t="n">
-        <v>99.59999999999999</v>
+        <v>101.9</v>
       </c>
       <c r="I47" t="n">
-        <v>124.7018</v>
+        <v>120.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.455</v>
+        <v>100.1298</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>99.95350000000001</v>
+        <v>101.2967</v>
       </c>
       <c r="E48" t="n">
-        <v>100.2522</v>
+        <v>102.509</v>
       </c>
       <c r="F48" t="n">
-        <v>93.5018</v>
+        <v>97.12990000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>102</v>
+        <v>102.9633</v>
       </c>
       <c r="H48" t="n">
-        <v>100.9</v>
+        <v>101.9</v>
       </c>
       <c r="I48" t="n">
-        <v>122.34</v>
+        <v>120.5137</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.72280000000001</v>
+        <v>100.3238</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>100.0397</v>
+        <v>102.2961</v>
       </c>
       <c r="E49" t="n">
-        <v>100.7893</v>
+        <v>103.3141</v>
       </c>
       <c r="F49" t="n">
-        <v>94.3496</v>
+        <v>98.5528</v>
       </c>
       <c r="G49" t="n">
-        <v>102.1525</v>
+        <v>103.4331</v>
       </c>
       <c r="H49" t="n">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="I49" t="n">
-        <v>121.1627</v>
+        <v>120.5089</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>112.9687</v>
+        <v>105.9</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>128.4163</v>
+        <v>114.5</v>
       </c>
       <c r="E50" t="n">
-        <v>118.7927</v>
+        <v>114.6</v>
       </c>
       <c r="F50" t="n">
-        <v>122.534</v>
+        <v>115.7</v>
       </c>
       <c r="G50" t="n">
-        <v>110.8123</v>
+        <v>108</v>
       </c>
       <c r="H50" t="n">
-        <v>102.5</v>
+        <v>104.2</v>
       </c>
       <c r="I50" t="n">
-        <v>95.70010000000001</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>112.8644</v>
+        <v>105.1056</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>127.5065</v>
+        <v>116.0024</v>
       </c>
       <c r="E51" t="n">
-        <v>118.1809</v>
+        <v>112.7432</v>
       </c>
       <c r="F51" t="n">
-        <v>121.0994</v>
+        <v>114.8475</v>
       </c>
       <c r="G51" t="n">
-        <v>110.35</v>
+        <v>106.7549</v>
       </c>
       <c r="H51" t="n">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="I51" t="n">
-        <v>94.77379999999999</v>
+        <v>94.7199</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>112.7384</v>
+        <v>106.7428</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>126.4222</v>
+        <v>120.6544</v>
       </c>
       <c r="E52" t="n">
-        <v>117.5745</v>
+        <v>113.3612</v>
       </c>
       <c r="F52" t="n">
-        <v>120.1507</v>
+        <v>115.7449</v>
       </c>
       <c r="G52" t="n">
-        <v>109.8715</v>
+        <v>107.1238</v>
       </c>
       <c r="H52" t="n">
-        <v>102.2</v>
+        <v>102.7</v>
       </c>
       <c r="I52" t="n">
-        <v>93.8708</v>
+        <v>91.21559999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>105.9</v>
+        <v>108.5096</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>114.5</v>
+        <v>123.9544</v>
       </c>
       <c r="E53" t="n">
-        <v>114.6</v>
+        <v>114.5516</v>
       </c>
       <c r="F53" t="n">
-        <v>115.7</v>
+        <v>117.1235</v>
       </c>
       <c r="G53" t="n">
-        <v>108</v>
+        <v>107.877</v>
       </c>
       <c r="H53" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="I53" t="n">
-        <v>100.6</v>
+        <v>89.72539999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>105.1056</v>
+        <v>110.2802</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>116.0024</v>
+        <v>125.6316</v>
       </c>
       <c r="E54" t="n">
-        <v>112.7432</v>
+        <v>115.5712</v>
       </c>
       <c r="F54" t="n">
-        <v>114.8475</v>
+        <v>117.7092</v>
       </c>
       <c r="G54" t="n">
-        <v>106.7549</v>
+        <v>108.6472</v>
       </c>
       <c r="H54" t="n">
-        <v>102.3</v>
+        <v>104.9</v>
       </c>
       <c r="I54" t="n">
-        <v>94.7199</v>
+        <v>90.4306</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>106.7428</v>
+        <v>111.6319</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>120.6544</v>
+        <v>126.6974</v>
       </c>
       <c r="E55" t="n">
-        <v>113.3612</v>
+        <v>116.6531</v>
       </c>
       <c r="F55" t="n">
-        <v>115.7449</v>
+        <v>119.7422</v>
       </c>
       <c r="G55" t="n">
-        <v>107.1238</v>
+        <v>109.4928</v>
       </c>
       <c r="H55" t="n">
-        <v>102.7</v>
+        <v>104</v>
       </c>
       <c r="I55" t="n">
-        <v>91.21559999999999</v>
+        <v>92.58580000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>108.5096</v>
+        <v>112.4319</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>123.9544</v>
+        <v>127.4239</v>
       </c>
       <c r="E56" t="n">
-        <v>114.5516</v>
+        <v>117.5428</v>
       </c>
       <c r="F56" t="n">
-        <v>117.1235</v>
+        <v>121.3671</v>
       </c>
       <c r="G56" t="n">
-        <v>107.877</v>
+        <v>110.1879</v>
       </c>
       <c r="H56" t="n">
-        <v>104.3</v>
+        <v>103.7</v>
       </c>
       <c r="I56" t="n">
-        <v>89.72539999999999</v>
+        <v>94.5771</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>110.2802</v>
+        <v>112.825</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>125.6316</v>
+        <v>127.9657</v>
       </c>
       <c r="E57" t="n">
-        <v>115.5712</v>
+        <v>118.3056</v>
       </c>
       <c r="F57" t="n">
-        <v>117.7092</v>
+        <v>122.3241</v>
       </c>
       <c r="G57" t="n">
-        <v>108.6472</v>
+        <v>110.6448</v>
       </c>
       <c r="H57" t="n">
-        <v>104.9</v>
+        <v>103.3</v>
       </c>
       <c r="I57" t="n">
-        <v>90.4306</v>
+        <v>95.7193</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>111.6319</v>
+        <v>112.9441</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>126.6974</v>
+        <v>128.3861</v>
       </c>
       <c r="E58" t="n">
-        <v>116.6531</v>
+        <v>118.7851</v>
       </c>
       <c r="F58" t="n">
-        <v>119.7422</v>
+        <v>122.9223</v>
       </c>
       <c r="G58" t="n">
-        <v>109.4928</v>
+        <v>110.9025</v>
       </c>
       <c r="H58" t="n">
-        <v>104</v>
+        <v>102.7</v>
       </c>
       <c r="I58" t="n">
-        <v>92.58580000000001</v>
+        <v>96.2752</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>112.4319</v>
+        <v>112.9687</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>127.4239</v>
+        <v>128.4163</v>
       </c>
       <c r="E59" t="n">
-        <v>117.5428</v>
+        <v>118.7927</v>
       </c>
       <c r="F59" t="n">
-        <v>121.3671</v>
+        <v>122.534</v>
       </c>
       <c r="G59" t="n">
-        <v>110.1879</v>
+        <v>110.8123</v>
       </c>
       <c r="H59" t="n">
-        <v>103.7</v>
+        <v>102.5</v>
       </c>
       <c r="I59" t="n">
-        <v>94.5771</v>
+        <v>95.70010000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>112.825</v>
+        <v>112.8644</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>127.9657</v>
+        <v>127.5065</v>
       </c>
       <c r="E60" t="n">
-        <v>118.3056</v>
+        <v>118.1809</v>
       </c>
       <c r="F60" t="n">
-        <v>122.3241</v>
+        <v>121.0994</v>
       </c>
       <c r="G60" t="n">
-        <v>110.6448</v>
+        <v>110.35</v>
       </c>
       <c r="H60" t="n">
-        <v>103.3</v>
+        <v>102.4</v>
       </c>
       <c r="I60" t="n">
-        <v>95.7193</v>
+        <v>94.77379999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>112.9441</v>
+        <v>112.7384</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>128.3861</v>
+        <v>126.4222</v>
       </c>
       <c r="E61" t="n">
-        <v>118.7851</v>
+        <v>117.5745</v>
       </c>
       <c r="F61" t="n">
-        <v>122.9223</v>
+        <v>120.1507</v>
       </c>
       <c r="G61" t="n">
-        <v>110.9025</v>
+        <v>109.8715</v>
       </c>
       <c r="H61" t="n">
-        <v>102.7</v>
+        <v>102.2</v>
       </c>
       <c r="I61" t="n">
-        <v>96.2752</v>
+        <v>93.8708</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>106.1066</v>
+        <v>108.9032</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>101.6621</v>
+        <v>114.2061</v>
       </c>
       <c r="E62" t="n">
-        <v>104.3301</v>
+        <v>109.3282</v>
       </c>
       <c r="F62" t="n">
-        <v>106.434</v>
+        <v>110.7139</v>
       </c>
       <c r="G62" t="n">
-        <v>103.111</v>
+        <v>104.04</v>
       </c>
       <c r="H62" t="n">
-        <v>99.1144</v>
+        <v>92.8</v>
       </c>
       <c r="I62" t="n">
-        <v>107.8741</v>
+        <v>89.81180000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>105.9783</v>
+        <v>112.4693</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>101.4966</v>
+        <v>112.9081</v>
       </c>
       <c r="E63" t="n">
-        <v>103.3183</v>
+        <v>112.103</v>
       </c>
       <c r="F63" t="n">
-        <v>105.6236</v>
+        <v>113.331</v>
       </c>
       <c r="G63" t="n">
-        <v>102.9717</v>
+        <v>106.4263</v>
       </c>
       <c r="H63" t="n">
-        <v>100.4091</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>109.0348</v>
+        <v>101.5493</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>105.9455</v>
+        <v>112.1216</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>101.4254</v>
+        <v>108.7313</v>
       </c>
       <c r="E64" t="n">
-        <v>102.4901</v>
+        <v>112.1225</v>
       </c>
       <c r="F64" t="n">
-        <v>104.5892</v>
+        <v>112.5162</v>
       </c>
       <c r="G64" t="n">
-        <v>102.9101</v>
+        <v>106.1407</v>
       </c>
       <c r="H64" t="n">
-        <v>101.5594</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="I64" t="n">
-        <v>110.3757</v>
+        <v>103.9724</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>108.9032</v>
+        <v>110.7453</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>114.2061</v>
+        <v>105.9105</v>
       </c>
       <c r="E65" t="n">
-        <v>109.3282</v>
+        <v>111.2348</v>
       </c>
       <c r="F65" t="n">
-        <v>110.7139</v>
+        <v>111.0887</v>
       </c>
       <c r="G65" t="n">
-        <v>104.04</v>
+        <v>105.3649</v>
       </c>
       <c r="H65" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="I65" t="n">
-        <v>89.81180000000001</v>
+        <v>104.5512</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>112.4693</v>
+        <v>109.1145</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>112.9081</v>
+        <v>104.3275</v>
       </c>
       <c r="E66" t="n">
-        <v>112.103</v>
+        <v>110.3597</v>
       </c>
       <c r="F66" t="n">
-        <v>113.331</v>
+        <v>111.2491</v>
       </c>
       <c r="G66" t="n">
-        <v>106.4263</v>
+        <v>104.8498</v>
       </c>
       <c r="H66" t="n">
-        <v>95.09999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>101.5493</v>
+        <v>105.5097</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>112.1216</v>
+        <v>107.801</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>108.7313</v>
+        <v>103.3864</v>
       </c>
       <c r="E67" t="n">
-        <v>112.1225</v>
+        <v>109.2578</v>
       </c>
       <c r="F67" t="n">
-        <v>112.5162</v>
+        <v>110.6943</v>
       </c>
       <c r="G67" t="n">
-        <v>106.1407</v>
+        <v>104.3948</v>
       </c>
       <c r="H67" t="n">
-        <v>94.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="I67" t="n">
-        <v>103.9724</v>
+        <v>105.9468</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>110.7453</v>
+        <v>106.9877</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>105.9105</v>
+        <v>102.758</v>
       </c>
       <c r="E68" t="n">
-        <v>111.2348</v>
+        <v>108.0054</v>
       </c>
       <c r="F68" t="n">
-        <v>111.0887</v>
+        <v>109.9014</v>
       </c>
       <c r="G68" t="n">
-        <v>105.3649</v>
+        <v>104.1011</v>
       </c>
       <c r="H68" t="n">
-        <v>93</v>
+        <v>95.2</v>
       </c>
       <c r="I68" t="n">
-        <v>104.5512</v>
+        <v>107.0368</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>109.1145</v>
+        <v>106.5462</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>104.3275</v>
+        <v>102.305</v>
       </c>
       <c r="E69" t="n">
-        <v>110.3597</v>
+        <v>106.6638</v>
       </c>
       <c r="F69" t="n">
-        <v>111.2491</v>
+        <v>108.7833</v>
       </c>
       <c r="G69" t="n">
-        <v>104.8498</v>
+        <v>103.6943</v>
       </c>
       <c r="H69" t="n">
-        <v>92.40000000000001</v>
+        <v>96.41849999999999</v>
       </c>
       <c r="I69" t="n">
-        <v>105.5097</v>
+        <v>107.1164</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>107.801</v>
+        <v>106.2936</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>103.3864</v>
+        <v>101.9384</v>
       </c>
       <c r="E70" t="n">
-        <v>109.2578</v>
+        <v>105.4278</v>
       </c>
       <c r="F70" t="n">
-        <v>110.6943</v>
+        <v>107.415</v>
       </c>
       <c r="G70" t="n">
-        <v>104.3948</v>
+        <v>103.3139</v>
       </c>
       <c r="H70" t="n">
-        <v>93.3</v>
+        <v>97.8336</v>
       </c>
       <c r="I70" t="n">
-        <v>105.9468</v>
+        <v>106.8692</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>106.9877</v>
+        <v>106.1066</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>102.758</v>
+        <v>101.6621</v>
       </c>
       <c r="E71" t="n">
-        <v>108.0054</v>
+        <v>104.3301</v>
       </c>
       <c r="F71" t="n">
-        <v>109.9014</v>
+        <v>106.434</v>
       </c>
       <c r="G71" t="n">
-        <v>104.1011</v>
+        <v>103.111</v>
       </c>
       <c r="H71" t="n">
-        <v>95.2</v>
+        <v>99.1144</v>
       </c>
       <c r="I71" t="n">
-        <v>107.0368</v>
+        <v>107.8741</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>106.5462</v>
+        <v>105.9783</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>102.305</v>
+        <v>101.4966</v>
       </c>
       <c r="E72" t="n">
-        <v>106.6638</v>
+        <v>103.3183</v>
       </c>
       <c r="F72" t="n">
-        <v>108.7833</v>
+        <v>105.6236</v>
       </c>
       <c r="G72" t="n">
-        <v>103.6943</v>
+        <v>102.9717</v>
       </c>
       <c r="H72" t="n">
-        <v>96.41849999999999</v>
+        <v>100.4091</v>
       </c>
       <c r="I72" t="n">
-        <v>107.1164</v>
+        <v>109.0348</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>106.2936</v>
+        <v>105.9455</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>101.9384</v>
+        <v>101.4254</v>
       </c>
       <c r="E73" t="n">
-        <v>105.4278</v>
+        <v>102.4901</v>
       </c>
       <c r="F73" t="n">
-        <v>107.415</v>
+        <v>104.5892</v>
       </c>
       <c r="G73" t="n">
-        <v>103.3139</v>
+        <v>102.9101</v>
       </c>
       <c r="H73" t="n">
-        <v>97.8336</v>
+        <v>101.5594</v>
       </c>
       <c r="I73" t="n">
-        <v>106.8692</v>
+        <v>110.3757</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>100.96418975</v>
+        <v>104.11311858</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>102.11802677</v>
+        <v>101.00317239</v>
       </c>
       <c r="E74" t="n">
-        <v>94.54085224000001</v>
+        <v>95.36806709</v>
       </c>
       <c r="F74" t="n">
-        <v>92.58770597</v>
+        <v>92.65441582</v>
       </c>
       <c r="G74" t="n">
-        <v>101.82327504</v>
+        <v>103.64803613</v>
       </c>
       <c r="H74" t="n">
-        <v>125.84578089</v>
+        <v>121.20307552</v>
       </c>
       <c r="I74" t="n">
-        <v>110.25789366</v>
+        <v>134.91077879</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>101.1163762</v>
+        <v>101.16642964</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>102.35137322</v>
+        <v>100.99083557</v>
       </c>
       <c r="E75" t="n">
-        <v>95.66512401999999</v>
+        <v>94.34876771</v>
       </c>
       <c r="F75" t="n">
-        <v>94.13410153</v>
+        <v>90.14325125000001</v>
       </c>
       <c r="G75" t="n">
-        <v>101.99004744</v>
+        <v>102.39016888</v>
       </c>
       <c r="H75" t="n">
-        <v>123.57888127</v>
+        <v>121.44021179</v>
       </c>
       <c r="I75" t="n">
-        <v>108.94747345</v>
+        <v>123.68801502</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>101.21577484</v>
+        <v>99.96753916999999</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>102.73375173</v>
+        <v>100.9722994</v>
       </c>
       <c r="E76" t="n">
-        <v>97.05960096</v>
+        <v>93.62764802</v>
       </c>
       <c r="F76" t="n">
-        <v>95.9951975</v>
+        <v>90.14585404</v>
       </c>
       <c r="G76" t="n">
-        <v>102.34681773</v>
+        <v>101.86933453</v>
       </c>
       <c r="H76" t="n">
-        <v>121.46509065</v>
+        <v>123.44535889</v>
       </c>
       <c r="I76" t="n">
-        <v>108.23579207</v>
+        <v>118.99531847</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>104.11311858</v>
+        <v>99.70530906</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>101.00317239</v>
+        <v>101.0401258</v>
       </c>
       <c r="E77" t="n">
-        <v>95.36806709</v>
+        <v>93.06130976999999</v>
       </c>
       <c r="F77" t="n">
-        <v>92.65441582</v>
+        <v>90.34424133</v>
       </c>
       <c r="G77" t="n">
-        <v>103.64803613</v>
+        <v>101.86252708</v>
       </c>
       <c r="H77" t="n">
-        <v>121.20307552</v>
+        <v>126.37275349</v>
       </c>
       <c r="I77" t="n">
-        <v>134.91077879</v>
+        <v>118.18162894</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>101.16642964</v>
+        <v>99.92119365000001</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>100.99083557</v>
+        <v>101.17893242</v>
       </c>
       <c r="E78" t="n">
-        <v>94.34876771</v>
+        <v>92.60429194</v>
       </c>
       <c r="F78" t="n">
-        <v>90.14325125000001</v>
+        <v>89.77764203</v>
       </c>
       <c r="G78" t="n">
-        <v>102.39016888</v>
+        <v>101.87949255</v>
       </c>
       <c r="H78" t="n">
-        <v>121.44021179</v>
+        <v>129.1225259</v>
       </c>
       <c r="I78" t="n">
-        <v>123.68801502</v>
+        <v>117.52582548</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>99.96753916999999</v>
+        <v>100.18586301</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>100.9722994</v>
+        <v>101.34893689</v>
       </c>
       <c r="E79" t="n">
-        <v>93.62764802</v>
+        <v>92.3347646</v>
       </c>
       <c r="F79" t="n">
-        <v>90.14585404</v>
+        <v>89.12227611</v>
       </c>
       <c r="G79" t="n">
-        <v>101.86933453</v>
+        <v>101.92358299</v>
       </c>
       <c r="H79" t="n">
-        <v>123.44535889</v>
+        <v>132.21382804</v>
       </c>
       <c r="I79" t="n">
-        <v>118.99531847</v>
+        <v>116.95181978</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.70530906</v>
+        <v>100.51386582</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>101.0401258</v>
+        <v>101.56752772</v>
       </c>
       <c r="E80" t="n">
-        <v>93.06130976999999</v>
+        <v>92.4160373</v>
       </c>
       <c r="F80" t="n">
-        <v>90.34424133</v>
+        <v>89.01568369</v>
       </c>
       <c r="G80" t="n">
-        <v>101.86252708</v>
+        <v>101.74025195</v>
       </c>
       <c r="H80" t="n">
-        <v>126.37275349</v>
+        <v>132.08036281</v>
       </c>
       <c r="I80" t="n">
-        <v>118.18162894</v>
+        <v>114.24394111</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>99.92119365000001</v>
+        <v>100.7465454</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>101.17893242</v>
+        <v>101.76024809</v>
       </c>
       <c r="E81" t="n">
-        <v>92.60429194</v>
+        <v>92.96237918999999</v>
       </c>
       <c r="F81" t="n">
-        <v>89.77764203</v>
+        <v>89.955386</v>
       </c>
       <c r="G81" t="n">
-        <v>101.87949255</v>
+        <v>101.69916599</v>
       </c>
       <c r="H81" t="n">
-        <v>129.1225259</v>
+        <v>130.33962933</v>
       </c>
       <c r="I81" t="n">
-        <v>117.52582548</v>
+        <v>112.54351217</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>100.18586301</v>
+        <v>100.79052661</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>101.34893689</v>
+        <v>101.94467926</v>
       </c>
       <c r="E82" t="n">
-        <v>92.3347646</v>
+        <v>93.67093951</v>
       </c>
       <c r="F82" t="n">
-        <v>89.12227611</v>
+        <v>91.19013903</v>
       </c>
       <c r="G82" t="n">
-        <v>101.92358299</v>
+        <v>101.77938469</v>
       </c>
       <c r="H82" t="n">
-        <v>132.21382804</v>
+        <v>127.97257655</v>
       </c>
       <c r="I82" t="n">
-        <v>116.95181978</v>
+        <v>112.02607919</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>100.51386582</v>
+        <v>100.96418975</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>101.56752772</v>
+        <v>102.11802677</v>
       </c>
       <c r="E83" t="n">
-        <v>92.4160373</v>
+        <v>94.54085224000001</v>
       </c>
       <c r="F83" t="n">
-        <v>89.01568369</v>
+        <v>92.58770597</v>
       </c>
       <c r="G83" t="n">
-        <v>101.74025195</v>
+        <v>101.82327504</v>
       </c>
       <c r="H83" t="n">
-        <v>132.08036281</v>
+        <v>125.84578089</v>
       </c>
       <c r="I83" t="n">
-        <v>114.24394111</v>
+        <v>110.25789366</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>100.7465454</v>
+        <v>101.1163762</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>101.76024809</v>
+        <v>102.35137322</v>
       </c>
       <c r="E84" t="n">
-        <v>92.96237918999999</v>
+        <v>95.66512401999999</v>
       </c>
       <c r="F84" t="n">
-        <v>89.955386</v>
+        <v>94.13410153</v>
       </c>
       <c r="G84" t="n">
-        <v>101.69916599</v>
+        <v>101.99004744</v>
       </c>
       <c r="H84" t="n">
-        <v>130.33962933</v>
+        <v>123.57888127</v>
       </c>
       <c r="I84" t="n">
-        <v>112.54351217</v>
+        <v>108.94747345</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>100.79052661</v>
+        <v>101.21577484</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>101.94467926</v>
+        <v>102.73375173</v>
       </c>
       <c r="E85" t="n">
-        <v>93.67093951</v>
+        <v>97.05960096</v>
       </c>
       <c r="F85" t="n">
-        <v>91.19013903</v>
+        <v>95.9951975</v>
       </c>
       <c r="G85" t="n">
-        <v>101.77938469</v>
+        <v>102.34681773</v>
       </c>
       <c r="H85" t="n">
-        <v>127.97257655</v>
+        <v>121.46509065</v>
       </c>
       <c r="I85" t="n">
-        <v>112.02607919</v>
+        <v>108.23579207</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>104.8</v>
+        <v>100.02662615</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>106.4</v>
+        <v>106.94678033</v>
       </c>
       <c r="E86" t="n">
-        <v>130.1</v>
+        <v>113.53477617</v>
       </c>
       <c r="F86" t="n">
-        <v>125</v>
+        <v>119.04844085</v>
       </c>
       <c r="G86" t="n">
-        <v>111.3</v>
+        <v>105.01988052</v>
       </c>
       <c r="H86" t="n">
-        <v>97.7</v>
+        <v>104.60584451</v>
       </c>
       <c r="I86" t="n">
-        <v>105.3</v>
+        <v>88.12209626000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>104.97380107</v>
+        <v>101.72556902</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>106.40341683</v>
+        <v>106.86038263</v>
       </c>
       <c r="E87" t="n">
-        <v>130.9461606</v>
+        <v>114.46288777</v>
       </c>
       <c r="F87" t="n">
-        <v>123.54571097</v>
+        <v>122.78096595</v>
       </c>
       <c r="G87" t="n">
-        <v>111.92807859</v>
+        <v>105.5255119</v>
       </c>
       <c r="H87" t="n">
-        <v>98.94613484</v>
+        <v>106.24855977</v>
       </c>
       <c r="I87" t="n">
-        <v>107.13333873</v>
+        <v>88.8782337</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>105.06542567</v>
+        <v>102.91199805</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>106.32669802</v>
+        <v>106.7175604</v>
       </c>
       <c r="E88" t="n">
-        <v>131.66577885</v>
+        <v>115.13868772</v>
       </c>
       <c r="F88" t="n">
-        <v>121.80134507</v>
+        <v>124.14346915</v>
       </c>
       <c r="G88" t="n">
-        <v>112.34066796</v>
+        <v>106.24996709</v>
       </c>
       <c r="H88" t="n">
-        <v>100.08800247</v>
+        <v>106.18227482</v>
       </c>
       <c r="I88" t="n">
-        <v>107.33111144</v>
+        <v>93.12783734</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>100.02662615</v>
+        <v>103.21086269</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>106.94678033</v>
+        <v>106.55563152</v>
       </c>
       <c r="E89" t="n">
-        <v>113.53477617</v>
+        <v>115.72885648</v>
       </c>
       <c r="F89" t="n">
-        <v>119.04844085</v>
+        <v>124.87828705</v>
       </c>
       <c r="G89" t="n">
-        <v>105.01988052</v>
+        <v>106.44920897</v>
       </c>
       <c r="H89" t="n">
-        <v>104.60584451</v>
+        <v>103.02006566</v>
       </c>
       <c r="I89" t="n">
-        <v>88.12209626000001</v>
+        <v>95.47917351</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>101.72556902</v>
+        <v>103.38164666</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>106.86038263</v>
+        <v>106.42487688</v>
       </c>
       <c r="E90" t="n">
-        <v>114.46288777</v>
+        <v>117.81060766</v>
       </c>
       <c r="F90" t="n">
-        <v>122.78096595</v>
+        <v>126.54806979</v>
       </c>
       <c r="G90" t="n">
-        <v>105.5255119</v>
+        <v>106.81249078</v>
       </c>
       <c r="H90" t="n">
-        <v>106.24855977</v>
+        <v>99.83683843999999</v>
       </c>
       <c r="I90" t="n">
-        <v>88.8782337</v>
+        <v>95.87991322000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>102.91199805</v>
+        <v>103.68082453</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>106.7175604</v>
+        <v>106.36624453</v>
       </c>
       <c r="E91" t="n">
-        <v>115.13868772</v>
+        <v>120.70447218</v>
       </c>
       <c r="F91" t="n">
-        <v>124.14346915</v>
+        <v>127.92384459</v>
       </c>
       <c r="G91" t="n">
-        <v>106.24996709</v>
+        <v>107.55224953</v>
       </c>
       <c r="H91" t="n">
-        <v>106.18227482</v>
+        <v>97.05617855</v>
       </c>
       <c r="I91" t="n">
-        <v>93.12783734</v>
+        <v>97.09977273</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>103.21086269</v>
+        <v>103.9322828</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>106.55563152</v>
+        <v>106.31182957</v>
       </c>
       <c r="E92" t="n">
-        <v>115.72885648</v>
+        <v>124.15778272</v>
       </c>
       <c r="F92" t="n">
-        <v>124.87828705</v>
+        <v>128.068207</v>
       </c>
       <c r="G92" t="n">
-        <v>106.44920897</v>
+        <v>108.6474682</v>
       </c>
       <c r="H92" t="n">
-        <v>103.02006566</v>
+        <v>95.82899831</v>
       </c>
       <c r="I92" t="n">
-        <v>95.47917351</v>
+        <v>99.51424724</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>103.38164666</v>
+        <v>104.21161385</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>106.42487688</v>
+        <v>106.32296361</v>
       </c>
       <c r="E93" t="n">
-        <v>117.81060766</v>
+        <v>127.33441007</v>
       </c>
       <c r="F93" t="n">
-        <v>126.54806979</v>
+        <v>127.42135071</v>
       </c>
       <c r="G93" t="n">
-        <v>106.81249078</v>
+        <v>109.82059454</v>
       </c>
       <c r="H93" t="n">
-        <v>99.83683843999999</v>
+        <v>95.91951374</v>
       </c>
       <c r="I93" t="n">
-        <v>95.87991322000001</v>
+        <v>101.93672381</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>103.68082453</v>
+        <v>104.56865546</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>106.36624453</v>
+        <v>106.3438837</v>
       </c>
       <c r="E94" t="n">
-        <v>120.70447218</v>
+        <v>129.14569323</v>
       </c>
       <c r="F94" t="n">
-        <v>127.92384459</v>
+        <v>126.2417112</v>
       </c>
       <c r="G94" t="n">
-        <v>107.55224953</v>
+        <v>110.60160858</v>
       </c>
       <c r="H94" t="n">
-        <v>97.05617855</v>
+        <v>96.72558162999999</v>
       </c>
       <c r="I94" t="n">
-        <v>97.09977273</v>
+        <v>102.98447806</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>103.9322828</v>
+        <v>104.8</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>106.31182957</v>
+        <v>106.4</v>
       </c>
       <c r="E95" t="n">
-        <v>124.15778272</v>
+        <v>130.1</v>
       </c>
       <c r="F95" t="n">
-        <v>128.068207</v>
+        <v>125</v>
       </c>
       <c r="G95" t="n">
-        <v>108.6474682</v>
+        <v>111.3</v>
       </c>
       <c r="H95" t="n">
-        <v>95.82899831</v>
+        <v>97.7</v>
       </c>
       <c r="I95" t="n">
-        <v>99.51424724</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>104.21161385</v>
+        <v>104.97380107</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>106.32296361</v>
+        <v>106.40341683</v>
       </c>
       <c r="E96" t="n">
-        <v>127.33441007</v>
+        <v>130.9461606</v>
       </c>
       <c r="F96" t="n">
-        <v>127.42135071</v>
+        <v>123.54571097</v>
       </c>
       <c r="G96" t="n">
-        <v>109.82059454</v>
+        <v>111.92807859</v>
       </c>
       <c r="H96" t="n">
-        <v>95.91951374</v>
+        <v>98.94613484</v>
       </c>
       <c r="I96" t="n">
-        <v>101.93672381</v>
+        <v>107.13333873</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>104.56865546</v>
+        <v>105.06542567</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>106.3438837</v>
+        <v>106.32669802</v>
       </c>
       <c r="E97" t="n">
-        <v>129.14569323</v>
+        <v>131.66577885</v>
       </c>
       <c r="F97" t="n">
-        <v>126.2417112</v>
+        <v>121.80134507</v>
       </c>
       <c r="G97" t="n">
-        <v>110.60160858</v>
+        <v>112.34066796</v>
       </c>
       <c r="H97" t="n">
-        <v>96.72558162999999</v>
+        <v>100.08800247</v>
       </c>
       <c r="I97" t="n">
-        <v>102.98447806</v>
+        <v>107.33111144</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>114.82490981</v>
+        <v>108.68450429</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>107.43636571</v>
+        <v>105.72199388</v>
       </c>
       <c r="E98" t="n">
-        <v>126.69993657</v>
+        <v>141.19813648</v>
       </c>
       <c r="F98" t="n">
-        <v>104.68234195</v>
+        <v>106.04567767</v>
       </c>
       <c r="G98" t="n">
-        <v>116.33668698</v>
+        <v>118.17347496</v>
       </c>
       <c r="H98" t="n">
-        <v>110.24236734</v>
+        <v>110.27814469</v>
       </c>
       <c r="I98" t="n">
-        <v>112.54560826</v>
+        <v>113.6696214</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>114.50167795</v>
+        <v>111.30311136</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>107.28080854</v>
+        <v>105.86657698</v>
       </c>
       <c r="E99" t="n">
-        <v>124.1696168</v>
+        <v>143.28554553</v>
       </c>
       <c r="F99" t="n">
-        <v>104.52291484</v>
+        <v>106.73197961</v>
       </c>
       <c r="G99" t="n">
-        <v>115.33496096</v>
+        <v>120.74703234</v>
       </c>
       <c r="H99" t="n">
-        <v>109.69754434</v>
+        <v>109.45002564</v>
       </c>
       <c r="I99" t="n">
-        <v>111.15088675</v>
+        <v>130.36156241</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>114.16453195</v>
+        <v>111.09328917</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>107.02591071</v>
+        <v>106.1947276</v>
       </c>
       <c r="E100" t="n">
-        <v>121.72701858</v>
+        <v>144.10420915</v>
       </c>
       <c r="F100" t="n">
-        <v>104.31306652</v>
+        <v>106.02268165</v>
       </c>
       <c r="G100" t="n">
-        <v>114.33223229</v>
+        <v>120.9657224</v>
       </c>
       <c r="H100" t="n">
-        <v>108.98303035</v>
+        <v>107.66746954</v>
       </c>
       <c r="I100" t="n">
-        <v>110.66213812</v>
+        <v>127.65234499</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>108.68450429</v>
+        <v>112.33600648</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>105.72199388</v>
+        <v>106.48750978</v>
       </c>
       <c r="E101" t="n">
-        <v>141.19813648</v>
+        <v>145.04969731</v>
       </c>
       <c r="F101" t="n">
-        <v>106.04567767</v>
+        <v>105.78931119</v>
       </c>
       <c r="G101" t="n">
-        <v>118.17347496</v>
+        <v>121.24969095</v>
       </c>
       <c r="H101" t="n">
-        <v>110.27814469</v>
+        <v>108.77869877</v>
       </c>
       <c r="I101" t="n">
-        <v>113.6696214</v>
+        <v>124.08100479</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>111.30311136</v>
+        <v>113.53454082</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>105.86657698</v>
+        <v>106.9189095</v>
       </c>
       <c r="E102" t="n">
-        <v>143.28554553</v>
+        <v>143.54165583</v>
       </c>
       <c r="F102" t="n">
-        <v>106.73197961</v>
+        <v>105.26629736</v>
       </c>
       <c r="G102" t="n">
-        <v>120.74703234</v>
+        <v>120.97317785</v>
       </c>
       <c r="H102" t="n">
-        <v>109.45002564</v>
+        <v>109.02641952</v>
       </c>
       <c r="I102" t="n">
-        <v>130.36156241</v>
+        <v>121.58586596</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>111.09328917</v>
+        <v>114.34043991</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>106.1947276</v>
+        <v>107.21818489</v>
       </c>
       <c r="E103" t="n">
-        <v>144.10420915</v>
+        <v>140.58259952</v>
       </c>
       <c r="F103" t="n">
-        <v>106.02268165</v>
+        <v>104.85392015</v>
       </c>
       <c r="G103" t="n">
-        <v>120.9657224</v>
+        <v>120.35092277</v>
       </c>
       <c r="H103" t="n">
-        <v>107.66746954</v>
+        <v>109.80256453</v>
       </c>
       <c r="I103" t="n">
-        <v>127.65234499</v>
+        <v>119.62035165</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>112.33600648</v>
+        <v>114.91221472</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>106.48750978</v>
+        <v>107.41813718</v>
       </c>
       <c r="E104" t="n">
-        <v>145.04969731</v>
+        <v>136.53694067</v>
       </c>
       <c r="F104" t="n">
-        <v>105.78931119</v>
+        <v>105.02617401</v>
       </c>
       <c r="G104" t="n">
-        <v>121.24969095</v>
+        <v>119.47592265</v>
       </c>
       <c r="H104" t="n">
-        <v>108.77869877</v>
+        <v>110.71494605</v>
       </c>
       <c r="I104" t="n">
-        <v>124.08100479</v>
+        <v>118.11989137</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>113.53454082</v>
+        <v>115.10430292</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>106.9189095</v>
+        <v>107.48782385</v>
       </c>
       <c r="E105" t="n">
-        <v>143.54165583</v>
+        <v>132.277121</v>
       </c>
       <c r="F105" t="n">
-        <v>105.26629736</v>
+        <v>104.71304019</v>
       </c>
       <c r="G105" t="n">
-        <v>120.97317785</v>
+        <v>118.25829923</v>
       </c>
       <c r="H105" t="n">
-        <v>109.02641952</v>
+        <v>110.96181263</v>
       </c>
       <c r="I105" t="n">
-        <v>121.58586596</v>
+        <v>115.76364718</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>114.34043991</v>
+        <v>115.06208379</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>107.21818489</v>
+        <v>107.49717168</v>
       </c>
       <c r="E106" t="n">
-        <v>140.58259952</v>
+        <v>129.22544294</v>
       </c>
       <c r="F106" t="n">
-        <v>104.85392015</v>
+        <v>104.75795298</v>
       </c>
       <c r="G106" t="n">
-        <v>120.35092277</v>
+        <v>117.25580827</v>
       </c>
       <c r="H106" t="n">
-        <v>109.80256453</v>
+        <v>110.7476357</v>
       </c>
       <c r="I106" t="n">
-        <v>119.62035165</v>
+        <v>113.99751963</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>114.91221472</v>
+        <v>114.82490981</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>107.41813718</v>
+        <v>107.43636571</v>
       </c>
       <c r="E107" t="n">
-        <v>136.53694067</v>
+        <v>126.69993657</v>
       </c>
       <c r="F107" t="n">
-        <v>105.02617401</v>
+        <v>104.68234195</v>
       </c>
       <c r="G107" t="n">
-        <v>119.47592265</v>
+        <v>116.33668698</v>
       </c>
       <c r="H107" t="n">
-        <v>110.71494605</v>
+        <v>110.24236734</v>
       </c>
       <c r="I107" t="n">
-        <v>118.11989137</v>
+        <v>112.54560826</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>115.10430292</v>
+        <v>114.50167795</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>107.48782385</v>
+        <v>107.28080854</v>
       </c>
       <c r="E108" t="n">
-        <v>132.277121</v>
+        <v>124.1696168</v>
       </c>
       <c r="F108" t="n">
-        <v>104.71304019</v>
+        <v>104.52291484</v>
       </c>
       <c r="G108" t="n">
-        <v>118.25829923</v>
+        <v>115.33496096</v>
       </c>
       <c r="H108" t="n">
-        <v>110.96181263</v>
+        <v>109.69754434</v>
       </c>
       <c r="I108" t="n">
-        <v>115.76364718</v>
+        <v>111.15088675</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>115.06208379</v>
+        <v>114.16453195</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>107.49717168</v>
+        <v>107.02591071</v>
       </c>
       <c r="E109" t="n">
-        <v>129.22544294</v>
+        <v>121.72701858</v>
       </c>
       <c r="F109" t="n">
-        <v>104.75795298</v>
+        <v>104.31306652</v>
       </c>
       <c r="G109" t="n">
-        <v>117.25580827</v>
+        <v>114.33223229</v>
       </c>
       <c r="H109" t="n">
-        <v>110.7476357</v>
+        <v>108.98303035</v>
       </c>
       <c r="I109" t="n">
-        <v>113.99751963</v>
+        <v>110.66213812</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>102.03969093</v>
+        <v>111.57139972</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>105.14016764</v>
+        <v>103.89973077</v>
       </c>
       <c r="E110" t="n">
-        <v>89.96508233</v>
+        <v>97.19779262</v>
       </c>
       <c r="F110" t="n">
-        <v>101.0463215</v>
+        <v>101.41037947</v>
       </c>
       <c r="G110" t="n">
-        <v>100.06782117</v>
+        <v>104.21102019</v>
       </c>
       <c r="H110" t="n">
-        <v>109.65438042</v>
+        <v>99.57683858</v>
       </c>
       <c r="I110" t="n">
-        <v>112.62705392</v>
+        <v>119.64083746</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>102.1718943</v>
+        <v>107.21731744</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>105.3134329</v>
+        <v>104.14428602</v>
       </c>
       <c r="E111" t="n">
-        <v>90.67086887000001</v>
+        <v>94.10572986</v>
       </c>
       <c r="F111" t="n">
-        <v>101.21532586</v>
+        <v>99.45200769</v>
       </c>
       <c r="G111" t="n">
-        <v>100.34112272</v>
+        <v>101.04322742</v>
       </c>
       <c r="H111" t="n">
-        <v>109.34869585</v>
+        <v>97.13037413000001</v>
       </c>
       <c r="I111" t="n">
-        <v>113.57306821</v>
+        <v>102.87940991</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>102.45862248</v>
+        <v>106.94748679</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>105.59093448</v>
+        <v>104.60783125</v>
       </c>
       <c r="E112" t="n">
-        <v>91.27214346</v>
+        <v>92.61770961000001</v>
       </c>
       <c r="F112" t="n">
-        <v>101.56148831</v>
+        <v>100.31762301</v>
       </c>
       <c r="G112" t="n">
-        <v>100.74766069</v>
+        <v>100.46746248</v>
       </c>
       <c r="H112" t="n">
-        <v>109.13789056</v>
+        <v>97.69269531</v>
       </c>
       <c r="I112" t="n">
-        <v>115.42577381</v>
+        <v>103.90372015</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>111.57139972</v>
+        <v>106.04389156</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>103.89973077</v>
+        <v>104.83467175</v>
       </c>
       <c r="E113" t="n">
-        <v>97.19779262</v>
+        <v>91.06782588</v>
       </c>
       <c r="F113" t="n">
-        <v>101.41037947</v>
+        <v>101.48371015</v>
       </c>
       <c r="G113" t="n">
-        <v>104.21102019</v>
+        <v>100.01405905</v>
       </c>
       <c r="H113" t="n">
-        <v>99.57683858</v>
+        <v>98.40117844</v>
       </c>
       <c r="I113" t="n">
-        <v>119.64083746</v>
+        <v>105.53940862</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>107.21731744</v>
+        <v>104.96190307</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>104.14428602</v>
+        <v>104.86697438</v>
       </c>
       <c r="E114" t="n">
-        <v>94.10572986</v>
+        <v>89.76561422</v>
       </c>
       <c r="F114" t="n">
-        <v>99.45200769</v>
+        <v>101.8314868</v>
       </c>
       <c r="G114" t="n">
-        <v>101.04322742</v>
+        <v>99.88229318</v>
       </c>
       <c r="H114" t="n">
-        <v>97.13037413000001</v>
+        <v>101.44332542</v>
       </c>
       <c r="I114" t="n">
-        <v>102.87940991</v>
+        <v>108.28159799</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>106.94748679</v>
+        <v>103.95807348</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>104.60783125</v>
+        <v>104.89854264</v>
       </c>
       <c r="E115" t="n">
-        <v>92.61770961000001</v>
+        <v>88.91911112</v>
       </c>
       <c r="F115" t="n">
-        <v>100.31762301</v>
+        <v>101.58176219</v>
       </c>
       <c r="G115" t="n">
-        <v>100.46746248</v>
+        <v>99.72127209</v>
       </c>
       <c r="H115" t="n">
-        <v>97.69269531</v>
+        <v>104.31049565</v>
       </c>
       <c r="I115" t="n">
-        <v>103.90372015</v>
+        <v>109.52283145</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>106.04389156</v>
+        <v>103.0918459</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>104.83467175</v>
+        <v>104.92573653</v>
       </c>
       <c r="E116" t="n">
-        <v>91.06782588</v>
+        <v>88.61954471999999</v>
       </c>
       <c r="F116" t="n">
-        <v>101.48371015</v>
+        <v>101.18366257</v>
       </c>
       <c r="G116" t="n">
-        <v>100.01405905</v>
+        <v>99.59393835</v>
       </c>
       <c r="H116" t="n">
-        <v>98.40117844</v>
+        <v>106.85011081</v>
       </c>
       <c r="I116" t="n">
-        <v>105.53940862</v>
+        <v>109.59867391</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>104.96190307</v>
+        <v>102.51570713</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>104.86697438</v>
+        <v>104.95706528</v>
       </c>
       <c r="E117" t="n">
-        <v>89.76561422</v>
+        <v>88.84912109</v>
       </c>
       <c r="F117" t="n">
-        <v>101.8314868</v>
+        <v>101.14078653</v>
       </c>
       <c r="G117" t="n">
-        <v>99.88229318</v>
+        <v>99.70987857999999</v>
       </c>
       <c r="H117" t="n">
-        <v>101.44332542</v>
+        <v>108.52107474</v>
       </c>
       <c r="I117" t="n">
-        <v>108.28159799</v>
+        <v>110.92754453</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>103.95807348</v>
+        <v>102.10809903</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>104.89854264</v>
+        <v>105.02221915</v>
       </c>
       <c r="E118" t="n">
-        <v>88.91911112</v>
+        <v>89.32488128</v>
       </c>
       <c r="F118" t="n">
-        <v>101.58176219</v>
+        <v>101.02988256</v>
       </c>
       <c r="G118" t="n">
-        <v>99.72127209</v>
+        <v>99.90333128</v>
       </c>
       <c r="H118" t="n">
-        <v>104.31049565</v>
+        <v>109.39055717</v>
       </c>
       <c r="I118" t="n">
-        <v>109.52283145</v>
+        <v>112.40064713</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>103.0918459</v>
+        <v>102.03969093</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>104.92573653</v>
+        <v>105.14016764</v>
       </c>
       <c r="E119" t="n">
-        <v>88.61954471999999</v>
+        <v>89.96508233</v>
       </c>
       <c r="F119" t="n">
-        <v>101.18366257</v>
+        <v>101.0463215</v>
       </c>
       <c r="G119" t="n">
-        <v>99.59393835</v>
+        <v>100.06782117</v>
       </c>
       <c r="H119" t="n">
-        <v>106.85011081</v>
+        <v>109.65438042</v>
       </c>
       <c r="I119" t="n">
-        <v>109.59867391</v>
+        <v>112.62705392</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>102.51570713</v>
+        <v>102.1718943</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>104.95706528</v>
+        <v>105.3134329</v>
       </c>
       <c r="E120" t="n">
-        <v>88.84912109</v>
+        <v>90.67086887000001</v>
       </c>
       <c r="F120" t="n">
-        <v>101.14078653</v>
+        <v>101.21532586</v>
       </c>
       <c r="G120" t="n">
-        <v>99.70987857999999</v>
+        <v>100.34112272</v>
       </c>
       <c r="H120" t="n">
-        <v>108.52107474</v>
+        <v>109.34869585</v>
       </c>
       <c r="I120" t="n">
-        <v>110.92754453</v>
+        <v>113.57306821</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>102.10809903</v>
+        <v>102.45862248</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>105.02221915</v>
+        <v>105.59093448</v>
       </c>
       <c r="E121" t="n">
-        <v>89.32488128</v>
+        <v>91.27214346</v>
       </c>
       <c r="F121" t="n">
-        <v>101.02988256</v>
+        <v>101.56148831</v>
       </c>
       <c r="G121" t="n">
-        <v>99.90333128</v>
+        <v>100.74766069</v>
       </c>
       <c r="H121" t="n">
-        <v>109.39055717</v>
+        <v>109.13789056</v>
       </c>
       <c r="I121" t="n">
-        <v>112.40064713</v>
+        <v>115.42577381</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>107.43139446</v>
+        <v>103.85732334</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>111.08485757</v>
+        <v>109.76447393</v>
       </c>
       <c r="E122" t="n">
-        <v>101.47192293</v>
+        <v>96.4923778</v>
       </c>
       <c r="F122" t="n">
-        <v>106.28285869</v>
+        <v>106.22097367</v>
       </c>
       <c r="G122" t="n">
-        <v>106.52474465</v>
+        <v>103.71958616</v>
       </c>
       <c r="H122" t="n">
-        <v>112.70534258</v>
+        <v>109.78111754</v>
       </c>
       <c r="I122" t="n">
-        <v>121.26790555</v>
+        <v>117.14194575</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>107.82184429</v>
+        <v>106.37276181</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>111.42623466</v>
+        <v>109.67415806</v>
       </c>
       <c r="E123" t="n">
-        <v>102.24292829</v>
+        <v>97.45244155</v>
       </c>
       <c r="F123" t="n">
-        <v>107.32671833</v>
+        <v>107.44052737</v>
       </c>
       <c r="G123" t="n">
-        <v>106.99459573</v>
+        <v>104.98313368</v>
       </c>
       <c r="H123" t="n">
-        <v>113.99313875</v>
+        <v>114.48414933</v>
       </c>
       <c r="I123" t="n">
-        <v>121.26632673</v>
+        <v>121.40000125</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>108.07662857</v>
+        <v>106.35648858</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>111.78477418</v>
+        <v>109.52726437</v>
       </c>
       <c r="E124" t="n">
-        <v>102.92125607</v>
+        <v>97.56631143</v>
       </c>
       <c r="F124" t="n">
-        <v>108.31316009</v>
+        <v>106.87511417</v>
       </c>
       <c r="G124" t="n">
-        <v>107.21327564</v>
+        <v>105.06895051</v>
       </c>
       <c r="H124" t="n">
-        <v>115.61691436</v>
+        <v>115.94733407</v>
       </c>
       <c r="I124" t="n">
-        <v>118.66307834</v>
+        <v>120.39656017</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>103.85732334</v>
+        <v>106.14680279</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>109.76447393</v>
+        <v>109.81908304</v>
       </c>
       <c r="E125" t="n">
-        <v>96.4923778</v>
+        <v>97.71962148</v>
       </c>
       <c r="F125" t="n">
-        <v>106.22097367</v>
+        <v>105.58004744</v>
       </c>
       <c r="G125" t="n">
-        <v>103.71958616</v>
+        <v>105.28708901</v>
       </c>
       <c r="H125" t="n">
-        <v>109.78111754</v>
+        <v>116.06494407</v>
       </c>
       <c r="I125" t="n">
-        <v>117.14194575</v>
+        <v>121.50321157</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>106.37276181</v>
+        <v>106.02805996</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>109.67415806</v>
+        <v>110.16807853</v>
       </c>
       <c r="E126" t="n">
-        <v>97.45244155</v>
+        <v>98.30341912999999</v>
       </c>
       <c r="F126" t="n">
-        <v>107.44052737</v>
+        <v>104.47544987</v>
       </c>
       <c r="G126" t="n">
-        <v>104.98313368</v>
+        <v>105.44160138</v>
       </c>
       <c r="H126" t="n">
-        <v>114.48414933</v>
+        <v>115.1088574</v>
       </c>
       <c r="I126" t="n">
-        <v>121.40000125</v>
+        <v>121.47433511</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>106.35648858</v>
+        <v>106.10110568</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>109.52726437</v>
+        <v>110.43351754</v>
       </c>
       <c r="E127" t="n">
-        <v>97.56631143</v>
+        <v>98.85193676</v>
       </c>
       <c r="F127" t="n">
-        <v>106.87511417</v>
+        <v>104.09279137</v>
       </c>
       <c r="G127" t="n">
-        <v>105.06895051</v>
+        <v>105.48444493</v>
       </c>
       <c r="H127" t="n">
-        <v>115.94733407</v>
+        <v>114.05036669</v>
       </c>
       <c r="I127" t="n">
-        <v>120.39656017</v>
+        <v>120.48006137</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>106.14680279</v>
+        <v>106.314853</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>109.81908304</v>
+        <v>110.62554177</v>
       </c>
       <c r="E128" t="n">
-        <v>97.71962148</v>
+        <v>99.57049730999999</v>
       </c>
       <c r="F128" t="n">
-        <v>105.58004744</v>
+        <v>104.57913958</v>
       </c>
       <c r="G128" t="n">
-        <v>105.28708901</v>
+        <v>105.66605196</v>
       </c>
       <c r="H128" t="n">
-        <v>116.06494407</v>
+        <v>112.62918097</v>
       </c>
       <c r="I128" t="n">
-        <v>121.50321157</v>
+        <v>120.70222113</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>106.02805996</v>
+        <v>106.56787268</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>110.16807853</v>
+        <v>110.79614986</v>
       </c>
       <c r="E129" t="n">
-        <v>98.30341912999999</v>
+        <v>100.298126</v>
       </c>
       <c r="F129" t="n">
-        <v>104.47544987</v>
+        <v>105.23873929</v>
       </c>
       <c r="G129" t="n">
-        <v>105.44160138</v>
+        <v>105.89413238</v>
       </c>
       <c r="H129" t="n">
-        <v>115.1088574</v>
+        <v>112.07119047</v>
       </c>
       <c r="I129" t="n">
-        <v>121.47433511</v>
+        <v>120.52774769</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>106.10110568</v>
+        <v>107.0330534</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>110.43351754</v>
+        <v>110.94102296</v>
       </c>
       <c r="E130" t="n">
-        <v>98.85193676</v>
+        <v>100.87441155</v>
       </c>
       <c r="F130" t="n">
-        <v>104.09279137</v>
+        <v>105.7955188</v>
       </c>
       <c r="G130" t="n">
-        <v>105.48444493</v>
+        <v>106.13404619</v>
       </c>
       <c r="H130" t="n">
-        <v>114.05036669</v>
+        <v>112.18948281</v>
       </c>
       <c r="I130" t="n">
-        <v>120.48006137</v>
+        <v>120.24771505</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>106.314853</v>
+        <v>107.43139446</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>110.62554177</v>
+        <v>111.08485757</v>
       </c>
       <c r="E131" t="n">
-        <v>99.57049730999999</v>
+        <v>101.47192293</v>
       </c>
       <c r="F131" t="n">
-        <v>104.57913958</v>
+        <v>106.28285869</v>
       </c>
       <c r="G131" t="n">
-        <v>105.66605196</v>
+        <v>106.52474465</v>
       </c>
       <c r="H131" t="n">
-        <v>112.62918097</v>
+        <v>112.70534258</v>
       </c>
       <c r="I131" t="n">
-        <v>120.70222113</v>
+        <v>121.26790555</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>106.56787268</v>
+        <v>107.82184429</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>110.79614986</v>
+        <v>111.42623466</v>
       </c>
       <c r="E132" t="n">
-        <v>100.298126</v>
+        <v>102.24292829</v>
       </c>
       <c r="F132" t="n">
-        <v>105.23873929</v>
+        <v>107.32671833</v>
       </c>
       <c r="G132" t="n">
-        <v>105.89413238</v>
+        <v>106.99459573</v>
       </c>
       <c r="H132" t="n">
-        <v>112.07119047</v>
+        <v>113.99313875</v>
       </c>
       <c r="I132" t="n">
-        <v>120.52774769</v>
+        <v>121.26632673</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>107.0330534</v>
+        <v>108.07662857</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>110.94102296</v>
+        <v>111.78477418</v>
       </c>
       <c r="E133" t="n">
-        <v>100.87441155</v>
+        <v>102.92125607</v>
       </c>
       <c r="F133" t="n">
-        <v>105.7955188</v>
+        <v>108.31316009</v>
       </c>
       <c r="G133" t="n">
-        <v>106.13404619</v>
+        <v>107.21327564</v>
       </c>
       <c r="H133" t="n">
-        <v>112.18948281</v>
+        <v>115.61691436</v>
       </c>
       <c r="I133" t="n">
-        <v>120.24771505</v>
+        <v>118.66307834</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>112.43792575</v>
+        <v>111.06686357</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>113.15828602</v>
+        <v>115.07571082</v>
       </c>
       <c r="E134" t="n">
-        <v>123.61339411</v>
+        <v>110.87746033</v>
       </c>
       <c r="F134" t="n">
-        <v>116.80658379</v>
+        <v>118.99682575</v>
       </c>
       <c r="G134" t="n">
-        <v>112.40217707</v>
+        <v>110.33719701</v>
       </c>
       <c r="H134" t="n">
-        <v>118.34977882</v>
+        <v>134.75759754</v>
       </c>
       <c r="I134" t="n">
-        <v>100.62981513</v>
+        <v>102.00915131</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>112.28437791</v>
+        <v>109.99431699</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>112.7476431</v>
+        <v>114.81142569</v>
       </c>
       <c r="E135" t="n">
-        <v>123.21745704</v>
+        <v>111.99270903</v>
       </c>
       <c r="F135" t="n">
-        <v>115.55647558</v>
+        <v>118.79271217</v>
       </c>
       <c r="G135" t="n">
-        <v>112.06074018</v>
+        <v>110.6169778</v>
       </c>
       <c r="H135" t="n">
-        <v>117.64173953</v>
+        <v>132.81522401</v>
       </c>
       <c r="I135" t="n">
-        <v>99.56302882</v>
+        <v>103.99670848</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>112.06646239</v>
+        <v>110.1</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>112.22182055</v>
+        <v>114.9</v>
       </c>
       <c r="E136" t="n">
-        <v>122.61216663</v>
+        <v>113.7</v>
       </c>
       <c r="F136" t="n">
-        <v>114.23197272</v>
+        <v>117.1</v>
       </c>
       <c r="G136" t="n">
-        <v>111.7981733</v>
+        <v>111</v>
       </c>
       <c r="H136" t="n">
-        <v>116.40800023</v>
+        <v>131.8</v>
       </c>
       <c r="I136" t="n">
-        <v>100.48409576</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>111.06686357</v>
+        <v>110.5</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>115.07571082</v>
+        <v>114.6</v>
       </c>
       <c r="E137" t="n">
-        <v>110.87746033</v>
+        <v>115.6</v>
       </c>
       <c r="F137" t="n">
-        <v>118.99682575</v>
+        <v>116.3</v>
       </c>
       <c r="G137" t="n">
-        <v>110.33719701</v>
+        <v>111.1</v>
       </c>
       <c r="H137" t="n">
-        <v>134.75759754</v>
+        <v>131.4</v>
       </c>
       <c r="I137" t="n">
-        <v>102.00915131</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>109.99431699</v>
+        <v>110.9</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>114.81142569</v>
+        <v>114.3</v>
       </c>
       <c r="E138" t="n">
-        <v>111.99270903</v>
+        <v>117.2</v>
       </c>
       <c r="F138" t="n">
-        <v>118.79271217</v>
+        <v>116.8</v>
       </c>
       <c r="G138" t="n">
-        <v>110.6169778</v>
+        <v>111.2</v>
       </c>
       <c r="H138" t="n">
-        <v>132.81522401</v>
+        <v>129.1</v>
       </c>
       <c r="I138" t="n">
-        <v>103.99670848</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>110.1</v>
+        <v>111.4</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>114.9</v>
+        <v>113.9</v>
       </c>
       <c r="E139" t="n">
-        <v>113.7</v>
+        <v>119.7</v>
       </c>
       <c r="F139" t="n">
-        <v>117.1</v>
+        <v>117.7</v>
       </c>
       <c r="G139" t="n">
-        <v>111</v>
+        <v>111.8</v>
       </c>
       <c r="H139" t="n">
-        <v>131.8</v>
+        <v>125.8</v>
       </c>
       <c r="I139" t="n">
-        <v>104.1</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>110.5</v>
+        <v>111.88493926</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>114.6</v>
+        <v>113.71252226</v>
       </c>
       <c r="E140" t="n">
-        <v>115.6</v>
+        <v>121.64717216</v>
       </c>
       <c r="F140" t="n">
-        <v>116.3</v>
+        <v>117.97186675</v>
       </c>
       <c r="G140" t="n">
-        <v>111.1</v>
+        <v>112.18161928</v>
       </c>
       <c r="H140" t="n">
-        <v>131.4</v>
+        <v>122.89901327</v>
       </c>
       <c r="I140" t="n">
-        <v>101.2</v>
+        <v>101.58636748</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>110.9</v>
+        <v>112.23772418</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>114.3</v>
+        <v>113.52204666</v>
       </c>
       <c r="E141" t="n">
-        <v>117.2</v>
+        <v>122.64236734</v>
       </c>
       <c r="F141" t="n">
-        <v>116.8</v>
+        <v>117.74689911</v>
       </c>
       <c r="G141" t="n">
-        <v>111.2</v>
+        <v>112.33374316</v>
       </c>
       <c r="H141" t="n">
-        <v>129.1</v>
+        <v>120.67523767</v>
       </c>
       <c r="I141" t="n">
-        <v>99.7</v>
+        <v>101.40641737</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>111.4</v>
+        <v>112.44424375</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>113.9</v>
+        <v>113.33946937</v>
       </c>
       <c r="E142" t="n">
-        <v>119.7</v>
+        <v>123.31679872</v>
       </c>
       <c r="F142" t="n">
-        <v>117.7</v>
+        <v>117.30961789</v>
       </c>
       <c r="G142" t="n">
-        <v>111.8</v>
+        <v>112.45650289</v>
       </c>
       <c r="H142" t="n">
-        <v>125.8</v>
+        <v>119.12941106</v>
       </c>
       <c r="I142" t="n">
-        <v>100.7</v>
+        <v>101.48299377</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>111.88493926</v>
+        <v>112.43792575</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>113.71252226</v>
+        <v>113.15828602</v>
       </c>
       <c r="E143" t="n">
-        <v>121.64717216</v>
+        <v>123.61339411</v>
       </c>
       <c r="F143" t="n">
-        <v>117.97186675</v>
+        <v>116.80658379</v>
       </c>
       <c r="G143" t="n">
-        <v>112.18161928</v>
+        <v>112.40217707</v>
       </c>
       <c r="H143" t="n">
-        <v>122.89901327</v>
+        <v>118.34977882</v>
       </c>
       <c r="I143" t="n">
-        <v>101.58636748</v>
+        <v>100.62981513</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>112.23772418</v>
+        <v>112.28437791</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>113.52204666</v>
+        <v>112.7476431</v>
       </c>
       <c r="E144" t="n">
-        <v>122.64236734</v>
+        <v>123.21745704</v>
       </c>
       <c r="F144" t="n">
-        <v>117.74689911</v>
+        <v>115.55647558</v>
       </c>
       <c r="G144" t="n">
-        <v>112.33374316</v>
+        <v>112.06074018</v>
       </c>
       <c r="H144" t="n">
-        <v>120.67523767</v>
+        <v>117.64173953</v>
       </c>
       <c r="I144" t="n">
-        <v>101.40641737</v>
+        <v>99.56302882</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>112.44424375</v>
+        <v>112.06646239</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>113.33946937</v>
+        <v>112.22182055</v>
       </c>
       <c r="E145" t="n">
-        <v>123.31679872</v>
+        <v>122.61216663</v>
       </c>
       <c r="F145" t="n">
-        <v>117.30961789</v>
+        <v>114.23197272</v>
       </c>
       <c r="G145" t="n">
-        <v>112.45650289</v>
+        <v>111.7981733</v>
       </c>
       <c r="H145" t="n">
-        <v>119.12941106</v>
+        <v>116.40800023</v>
       </c>
       <c r="I145" t="n">
-        <v>101.48299377</v>
+        <v>100.48409576</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>108.44684962</v>
+        <v>113.24953767</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>103.95802983</v>
+        <v>106.06869105</v>
       </c>
       <c r="E146" t="n">
-        <v>102.54779884</v>
+        <v>118.7410636</v>
       </c>
       <c r="F146" t="n">
-        <v>95.36831156</v>
+        <v>98.01638502</v>
       </c>
       <c r="G146" t="n">
-        <v>105.09735712</v>
+        <v>110.50777282</v>
       </c>
       <c r="H146" t="n">
-        <v>99.54025846</v>
+        <v>102.30910475</v>
       </c>
       <c r="I146" t="n">
-        <v>116.38433292</v>
+        <v>123.02626322</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>108.12719617</v>
+        <v>110.292587</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>103.94587461</v>
+        <v>105.70983343</v>
       </c>
       <c r="E147" t="n">
-        <v>102.13706264</v>
+        <v>115.79102556</v>
       </c>
       <c r="F147" t="n">
-        <v>96.11768218</v>
+        <v>93.66956292</v>
       </c>
       <c r="G147" t="n">
-        <v>104.90025449</v>
+        <v>108.31395322</v>
       </c>
       <c r="H147" t="n">
-        <v>99.24083367</v>
+        <v>97.92451483000001</v>
       </c>
       <c r="I147" t="n">
-        <v>115.9657356</v>
+        <v>114.15268882</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>107.95965417</v>
+        <v>110.66856893</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>103.95781835</v>
+        <v>105.2212013</v>
       </c>
       <c r="E148" t="n">
-        <v>102.07444015</v>
+        <v>114.30162768</v>
       </c>
       <c r="F148" t="n">
-        <v>97.1474917</v>
+        <v>93.843805</v>
       </c>
       <c r="G148" t="n">
-        <v>104.84465994</v>
+        <v>108.03963392</v>
       </c>
       <c r="H148" t="n">
-        <v>98.83373603</v>
+        <v>96.50952325999999</v>
       </c>
       <c r="I148" t="n">
-        <v>115.86589766</v>
+        <v>116.26356947</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>113.24953767</v>
+        <v>110.87775278</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>106.06869105</v>
+        <v>104.84721411</v>
       </c>
       <c r="E149" t="n">
-        <v>118.7410636</v>
+        <v>112.7761735</v>
       </c>
       <c r="F149" t="n">
-        <v>98.01638502</v>
+        <v>93.90864440999999</v>
       </c>
       <c r="G149" t="n">
-        <v>110.50777282</v>
+        <v>107.76749168</v>
       </c>
       <c r="H149" t="n">
-        <v>102.30910475</v>
+        <v>94.88338365</v>
       </c>
       <c r="I149" t="n">
-        <v>123.02626322</v>
+        <v>118.9114265</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>110.292587</v>
+        <v>110.97067168</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>105.70983343</v>
+        <v>104.55328625</v>
       </c>
       <c r="E150" t="n">
-        <v>115.79102556</v>
+        <v>111.20828947</v>
       </c>
       <c r="F150" t="n">
-        <v>93.66956292</v>
+        <v>93.17110805</v>
       </c>
       <c r="G150" t="n">
-        <v>108.31395322</v>
+        <v>107.49480662</v>
       </c>
       <c r="H150" t="n">
-        <v>97.92451483000001</v>
+        <v>94.47879593</v>
       </c>
       <c r="I150" t="n">
-        <v>114.15268882</v>
+        <v>121.02289826</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>110.66856893</v>
+        <v>110.5618398</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>105.2212013</v>
+        <v>104.32621971</v>
       </c>
       <c r="E151" t="n">
-        <v>114.30162768</v>
+        <v>108.90840895</v>
       </c>
       <c r="F151" t="n">
-        <v>93.843805</v>
+        <v>93.73551553999999</v>
       </c>
       <c r="G151" t="n">
-        <v>108.03963392</v>
+        <v>106.8694736</v>
       </c>
       <c r="H151" t="n">
-        <v>96.50952325999999</v>
+        <v>95.38789233999999</v>
       </c>
       <c r="I151" t="n">
-        <v>116.26356947</v>
+        <v>119.72697382</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>110.87775278</v>
+        <v>109.98623188</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>104.84721411</v>
+        <v>104.13394009</v>
       </c>
       <c r="E152" t="n">
-        <v>112.7761735</v>
+        <v>106.5419891</v>
       </c>
       <c r="F152" t="n">
-        <v>93.90864440999999</v>
+        <v>93.69648703999999</v>
       </c>
       <c r="G152" t="n">
-        <v>107.76749168</v>
+        <v>106.22606898</v>
       </c>
       <c r="H152" t="n">
-        <v>94.88338365</v>
+        <v>96.96033654</v>
       </c>
       <c r="I152" t="n">
-        <v>118.9114265</v>
+        <v>118.18596075</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>110.97067168</v>
+        <v>109.42664307</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>104.55328625</v>
+        <v>104.01001385</v>
       </c>
       <c r="E153" t="n">
-        <v>111.20828947</v>
+        <v>104.73989763</v>
       </c>
       <c r="F153" t="n">
-        <v>93.17110805</v>
+        <v>94.11491454</v>
       </c>
       <c r="G153" t="n">
-        <v>107.49480662</v>
+        <v>105.86348883</v>
       </c>
       <c r="H153" t="n">
-        <v>94.47879593</v>
+        <v>98.25743283</v>
       </c>
       <c r="I153" t="n">
-        <v>121.02289826</v>
+        <v>118.8330627</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>110.5618398</v>
+        <v>108.8678528</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>104.32621971</v>
+        <v>103.97741941</v>
       </c>
       <c r="E154" t="n">
-        <v>108.90840895</v>
+        <v>103.42793482</v>
       </c>
       <c r="F154" t="n">
-        <v>93.73551553999999</v>
+        <v>94.83595808</v>
       </c>
       <c r="G154" t="n">
-        <v>106.8694736</v>
+        <v>105.47468811</v>
       </c>
       <c r="H154" t="n">
-        <v>95.38789233999999</v>
+        <v>99.10720877999999</v>
       </c>
       <c r="I154" t="n">
-        <v>119.72697382</v>
+        <v>117.99061668</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>109.98623188</v>
+        <v>108.44684962</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>104.13394009</v>
+        <v>103.95802983</v>
       </c>
       <c r="E155" t="n">
-        <v>106.5419891</v>
+        <v>102.54779884</v>
       </c>
       <c r="F155" t="n">
-        <v>93.69648703999999</v>
+        <v>95.36831156</v>
       </c>
       <c r="G155" t="n">
-        <v>106.22606898</v>
+        <v>105.09735712</v>
       </c>
       <c r="H155" t="n">
-        <v>96.96033654</v>
+        <v>99.54025846</v>
       </c>
       <c r="I155" t="n">
-        <v>118.18596075</v>
+        <v>116.38433292</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>109.42664307</v>
+        <v>108.12719617</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>104.01001385</v>
+        <v>103.94587461</v>
       </c>
       <c r="E156" t="n">
-        <v>104.73989763</v>
+        <v>102.13706264</v>
       </c>
       <c r="F156" t="n">
-        <v>94.11491454</v>
+        <v>96.11768218</v>
       </c>
       <c r="G156" t="n">
-        <v>105.86348883</v>
+        <v>104.90025449</v>
       </c>
       <c r="H156" t="n">
-        <v>98.25743283</v>
+        <v>99.24083367</v>
       </c>
       <c r="I156" t="n">
-        <v>118.8330627</v>
+        <v>115.9657356</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>108.8678528</v>
+        <v>107.95965417</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>103.97741941</v>
+        <v>103.95781835</v>
       </c>
       <c r="E157" t="n">
-        <v>103.42793482</v>
+        <v>102.07444015</v>
       </c>
       <c r="F157" t="n">
-        <v>94.83595808</v>
+        <v>97.1474917</v>
       </c>
       <c r="G157" t="n">
-        <v>105.47468811</v>
+        <v>104.84465994</v>
       </c>
       <c r="H157" t="n">
-        <v>99.10720877999999</v>
+        <v>98.83373603</v>
       </c>
       <c r="I157" t="n">
-        <v>117.99061668</v>
+        <v>115.86589766</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>103.84758429</v>
+        <v>102.51507249</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>104.79883562</v>
+        <v>104.66252842</v>
       </c>
       <c r="E158" t="n">
-        <v>104.28710633</v>
+        <v>101.4434091</v>
       </c>
       <c r="F158" t="n">
-        <v>106.67319007</v>
+        <v>111.00975662</v>
       </c>
       <c r="G158" t="n">
-        <v>104.60609512</v>
+        <v>102.88391152</v>
       </c>
       <c r="H158" t="n">
-        <v>105.95010535</v>
+        <v>93.25443298</v>
       </c>
       <c r="I158" t="n">
-        <v>107.42305183</v>
+        <v>102.56385924</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>104.07824936</v>
+        <v>105.13836923</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>104.72141269</v>
+        <v>104.87482824</v>
       </c>
       <c r="E159" t="n">
-        <v>104.3987087</v>
+        <v>103.34617376</v>
       </c>
       <c r="F159" t="n">
-        <v>105.85725362</v>
+        <v>115.15755351</v>
       </c>
       <c r="G159" t="n">
-        <v>104.72678138</v>
+        <v>104.43293708</v>
       </c>
       <c r="H159" t="n">
-        <v>106.3525548</v>
+        <v>98.48574109</v>
       </c>
       <c r="I159" t="n">
-        <v>108.59813208</v>
+        <v>106.28596694</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>104.19482329</v>
+        <v>103.92950665</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>104.64580632</v>
+        <v>104.97721015</v>
       </c>
       <c r="E160" t="n">
-        <v>104.3266993</v>
+        <v>103.20309106</v>
       </c>
       <c r="F160" t="n">
-        <v>104.94758435</v>
+        <v>114.75464234</v>
       </c>
       <c r="G160" t="n">
-        <v>104.66970226</v>
+        <v>103.84762516</v>
       </c>
       <c r="H160" t="n">
-        <v>107.08782318</v>
+        <v>100.66019262</v>
       </c>
       <c r="I160" t="n">
-        <v>108.08603064</v>
+        <v>100.54671868</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>102.51507249</v>
+        <v>103.43261404</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>104.66252842</v>
+        <v>105.02898566</v>
       </c>
       <c r="E161" t="n">
-        <v>101.4434091</v>
+        <v>102.79116602</v>
       </c>
       <c r="F161" t="n">
-        <v>111.00975662</v>
+        <v>114.15642989</v>
       </c>
       <c r="G161" t="n">
-        <v>102.88391152</v>
+        <v>103.89724139</v>
       </c>
       <c r="H161" t="n">
-        <v>93.25443298</v>
+        <v>101.81451148</v>
       </c>
       <c r="I161" t="n">
-        <v>102.56385924</v>
+        <v>101.8683922</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>105.13836923</v>
+        <v>103.18837911</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>104.87482824</v>
+        <v>105.05069611</v>
       </c>
       <c r="E162" t="n">
-        <v>103.34617376</v>
+        <v>102.56487406</v>
       </c>
       <c r="F162" t="n">
-        <v>115.15755351</v>
+        <v>113.6421302</v>
       </c>
       <c r="G162" t="n">
-        <v>104.43293708</v>
+        <v>103.76435754</v>
       </c>
       <c r="H162" t="n">
-        <v>98.48574109</v>
+        <v>102.7484339</v>
       </c>
       <c r="I162" t="n">
-        <v>106.28596694</v>
+        <v>101.17335448</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>103.92950665</v>
+        <v>103.16673777</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>104.97721015</v>
+        <v>105.06475388</v>
       </c>
       <c r="E163" t="n">
-        <v>103.20309106</v>
+        <v>102.91927313</v>
       </c>
       <c r="F163" t="n">
-        <v>114.75464234</v>
+        <v>111.2811167</v>
       </c>
       <c r="G163" t="n">
-        <v>103.84762516</v>
+        <v>103.95352124</v>
       </c>
       <c r="H163" t="n">
-        <v>100.66019262</v>
+        <v>104.10663391</v>
       </c>
       <c r="I163" t="n">
-        <v>100.54671868</v>
+        <v>102.33579731</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>103.43261404</v>
+        <v>103.1528731</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>105.02898566</v>
+        <v>105.07272877</v>
       </c>
       <c r="E164" t="n">
-        <v>102.79116602</v>
+        <v>103.32859655</v>
       </c>
       <c r="F164" t="n">
-        <v>114.15642989</v>
+        <v>109.80509176</v>
       </c>
       <c r="G164" t="n">
-        <v>103.89724139</v>
+        <v>104.10211172</v>
       </c>
       <c r="H164" t="n">
-        <v>101.81451148</v>
+        <v>104.52495015</v>
       </c>
       <c r="I164" t="n">
-        <v>101.8683922</v>
+        <v>103.47552971</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>103.18837911</v>
+        <v>103.29589132</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>105.05069611</v>
+        <v>105.02876861</v>
       </c>
       <c r="E165" t="n">
-        <v>102.56487406</v>
+        <v>103.79983035</v>
       </c>
       <c r="F165" t="n">
-        <v>113.6421302</v>
+        <v>108.48929776</v>
       </c>
       <c r="G165" t="n">
-        <v>103.76435754</v>
+        <v>104.17998755</v>
       </c>
       <c r="H165" t="n">
-        <v>102.7484339</v>
+        <v>104.86606499</v>
       </c>
       <c r="I165" t="n">
-        <v>101.17335448</v>
+        <v>103.68628672</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>103.16673777</v>
+        <v>103.57917052</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>105.06475388</v>
+        <v>104.91085842</v>
       </c>
       <c r="E166" t="n">
-        <v>102.91927313</v>
+        <v>104.11431718</v>
       </c>
       <c r="F166" t="n">
-        <v>111.2811167</v>
+        <v>107.5801452</v>
       </c>
       <c r="G166" t="n">
-        <v>103.95352124</v>
+        <v>104.39261878</v>
       </c>
       <c r="H166" t="n">
-        <v>104.10663391</v>
+        <v>105.64795861</v>
       </c>
       <c r="I166" t="n">
-        <v>102.33579731</v>
+        <v>105.24995123</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>103.1528731</v>
+        <v>103.84758429</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>105.07272877</v>
+        <v>104.79883562</v>
       </c>
       <c r="E167" t="n">
-        <v>103.32859655</v>
+        <v>104.28710633</v>
       </c>
       <c r="F167" t="n">
-        <v>109.80509176</v>
+        <v>106.67319007</v>
       </c>
       <c r="G167" t="n">
-        <v>104.10211172</v>
+        <v>104.60609512</v>
       </c>
       <c r="H167" t="n">
-        <v>104.52495015</v>
+        <v>105.95010535</v>
       </c>
       <c r="I167" t="n">
-        <v>103.47552971</v>
+        <v>107.42305183</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>103.29589132</v>
+        <v>104.07824936</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>105.02876861</v>
+        <v>104.72141269</v>
       </c>
       <c r="E168" t="n">
-        <v>103.79983035</v>
+        <v>104.3987087</v>
       </c>
       <c r="F168" t="n">
-        <v>108.48929776</v>
+        <v>105.85725362</v>
       </c>
       <c r="G168" t="n">
-        <v>104.17998755</v>
+        <v>104.72678138</v>
       </c>
       <c r="H168" t="n">
-        <v>104.86606499</v>
+        <v>106.3525548</v>
       </c>
       <c r="I168" t="n">
-        <v>103.68628672</v>
+        <v>108.59813208</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>103.57917052</v>
+        <v>104.19482329</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>104.91085842</v>
+        <v>104.64580632</v>
       </c>
       <c r="E169" t="n">
-        <v>104.11431718</v>
+        <v>104.3266993</v>
       </c>
       <c r="F169" t="n">
-        <v>107.5801452</v>
+        <v>104.94758435</v>
       </c>
       <c r="G169" t="n">
-        <v>104.39261878</v>
+        <v>104.66970226</v>
       </c>
       <c r="H169" t="n">
-        <v>105.64795861</v>
+        <v>107.08782318</v>
       </c>
       <c r="I169" t="n">
-        <v>105.24995123</v>
+        <v>108.08603064</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>104.75702016</v>
+        <v>106.31378098</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>103.12901946</v>
+        <v>103.14086271</v>
       </c>
       <c r="E170" t="n">
-        <v>100.40960535</v>
+        <v>100.31927419</v>
       </c>
       <c r="F170" t="n">
-        <v>109.39628952</v>
+        <v>96.22810205</v>
       </c>
       <c r="G170" t="n">
-        <v>103.18673395</v>
+        <v>103.67182722</v>
       </c>
       <c r="H170" t="n">
-        <v>119.14278099</v>
+        <v>123.00269427</v>
       </c>
       <c r="I170" t="n">
-        <v>98.05739446</v>
+        <v>102.05216294</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>104.56068085</v>
+        <v>105.5001106</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>103.13670843</v>
+        <v>102.94943562</v>
       </c>
       <c r="E171" t="n">
-        <v>100.41746886</v>
+        <v>98.63623549</v>
       </c>
       <c r="F171" t="n">
-        <v>110.03849241</v>
+        <v>95.20405923</v>
       </c>
       <c r="G171" t="n">
-        <v>103.10644505</v>
+        <v>103.1545766</v>
       </c>
       <c r="H171" t="n">
-        <v>118.68466673</v>
+        <v>121.28165417</v>
       </c>
       <c r="I171" t="n">
-        <v>97.76889018999999</v>
+        <v>102.67554864</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>104.38491137</v>
+        <v>106.21134014</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>103.12791845</v>
+        <v>102.87259139</v>
       </c>
       <c r="E172" t="n">
-        <v>100.36144334</v>
+        <v>98.47955053</v>
       </c>
       <c r="F172" t="n">
-        <v>110.36997987</v>
+        <v>96.85012444</v>
       </c>
       <c r="G172" t="n">
-        <v>103.0853792</v>
+        <v>103.45716349</v>
       </c>
       <c r="H172" t="n">
-        <v>117.96967852</v>
+        <v>119.89806279</v>
       </c>
       <c r="I172" t="n">
-        <v>98.52432030999999</v>
+        <v>105.83041954</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>106.31378098</v>
+        <v>106.09508237</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>103.14086271</v>
+        <v>102.84767791</v>
       </c>
       <c r="E173" t="n">
-        <v>100.31927419</v>
+        <v>98.67347432</v>
       </c>
       <c r="F173" t="n">
-        <v>96.22810205</v>
+        <v>99.24091343000001</v>
       </c>
       <c r="G173" t="n">
-        <v>103.67182722</v>
+        <v>103.16595198</v>
       </c>
       <c r="H173" t="n">
-        <v>123.00269427</v>
+        <v>119.56378025</v>
       </c>
       <c r="I173" t="n">
-        <v>102.05216294</v>
+        <v>102.31118212</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>105.5001106</v>
+        <v>105.87216502</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>102.94943562</v>
+        <v>102.87761688</v>
       </c>
       <c r="E174" t="n">
-        <v>98.63623549</v>
+        <v>99.54220519</v>
       </c>
       <c r="F174" t="n">
-        <v>95.20405923</v>
+        <v>102.73498922</v>
       </c>
       <c r="G174" t="n">
-        <v>103.1545766</v>
+        <v>103.35003933</v>
       </c>
       <c r="H174" t="n">
-        <v>121.28165417</v>
+        <v>119.6577017</v>
       </c>
       <c r="I174" t="n">
-        <v>102.67554864</v>
+        <v>101.44650372</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>106.21134014</v>
+        <v>105.56564969</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>102.87259139</v>
+        <v>102.93837101</v>
       </c>
       <c r="E175" t="n">
-        <v>98.47955053</v>
+        <v>99.92823092</v>
       </c>
       <c r="F175" t="n">
-        <v>96.85012444</v>
+        <v>104.3943616</v>
       </c>
       <c r="G175" t="n">
-        <v>103.45716349</v>
+        <v>103.40477231</v>
       </c>
       <c r="H175" t="n">
-        <v>119.89806279</v>
+        <v>119.6834134</v>
       </c>
       <c r="I175" t="n">
-        <v>105.83041954</v>
+        <v>100.97594609</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>106.09508237</v>
+        <v>105.33278546</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>102.84767791</v>
+        <v>102.99728699</v>
       </c>
       <c r="E176" t="n">
-        <v>98.67347432</v>
+        <v>100.09200091</v>
       </c>
       <c r="F176" t="n">
-        <v>99.24091343000001</v>
+        <v>106.45552373</v>
       </c>
       <c r="G176" t="n">
-        <v>103.16595198</v>
+        <v>103.43204155</v>
       </c>
       <c r="H176" t="n">
-        <v>119.56378025</v>
+        <v>119.74500586</v>
       </c>
       <c r="I176" t="n">
-        <v>102.31118212</v>
+        <v>100.63613531</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>105.87216502</v>
+        <v>105.14707629</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>102.87761688</v>
+        <v>103.04692356</v>
       </c>
       <c r="E177" t="n">
-        <v>99.54220519</v>
+        <v>100.21895852</v>
       </c>
       <c r="F177" t="n">
-        <v>102.73498922</v>
+        <v>108.01406841</v>
       </c>
       <c r="G177" t="n">
-        <v>103.35003933</v>
+        <v>103.38375531</v>
       </c>
       <c r="H177" t="n">
-        <v>119.6577017</v>
+        <v>119.91577825</v>
       </c>
       <c r="I177" t="n">
-        <v>101.44650372</v>
+        <v>99.70862601</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>105.56564969</v>
+        <v>104.93242588</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>102.93837101</v>
+        <v>103.09151914</v>
       </c>
       <c r="E178" t="n">
-        <v>99.92823092</v>
+        <v>100.32745914</v>
       </c>
       <c r="F178" t="n">
-        <v>104.3943616</v>
+        <v>108.60482728</v>
       </c>
       <c r="G178" t="n">
-        <v>103.40477231</v>
+        <v>103.26426205</v>
       </c>
       <c r="H178" t="n">
-        <v>119.6834134</v>
+        <v>119.56699372</v>
       </c>
       <c r="I178" t="n">
-        <v>100.97594609</v>
+        <v>98.65495629</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>105.33278546</v>
+        <v>104.75702016</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>102.99728699</v>
+        <v>103.12901946</v>
       </c>
       <c r="E179" t="n">
-        <v>100.09200091</v>
+        <v>100.40960535</v>
       </c>
       <c r="F179" t="n">
-        <v>106.45552373</v>
+        <v>109.39628952</v>
       </c>
       <c r="G179" t="n">
-        <v>103.43204155</v>
+        <v>103.18673395</v>
       </c>
       <c r="H179" t="n">
-        <v>119.74500586</v>
+        <v>119.14278099</v>
       </c>
       <c r="I179" t="n">
-        <v>100.63613531</v>
+        <v>98.05739446</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>105.14707629</v>
+        <v>104.56068085</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>103.04692356</v>
+        <v>103.13670843</v>
       </c>
       <c r="E180" t="n">
-        <v>100.21895852</v>
+        <v>100.41746886</v>
       </c>
       <c r="F180" t="n">
-        <v>108.01406841</v>
+        <v>110.03849241</v>
       </c>
       <c r="G180" t="n">
-        <v>103.38375531</v>
+        <v>103.10644505</v>
       </c>
       <c r="H180" t="n">
-        <v>119.91577825</v>
+        <v>118.68466673</v>
       </c>
       <c r="I180" t="n">
-        <v>99.70862601</v>
+        <v>97.76889018999999</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>104.93242588</v>
+        <v>104.38491137</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>103.09151914</v>
+        <v>103.12791845</v>
       </c>
       <c r="E181" t="n">
-        <v>100.32745914</v>
+        <v>100.36144334</v>
       </c>
       <c r="F181" t="n">
-        <v>108.60482728</v>
+        <v>110.36997987</v>
       </c>
       <c r="G181" t="n">
-        <v>103.26426205</v>
+        <v>103.0853792</v>
       </c>
       <c r="H181" t="n">
-        <v>119.56699372</v>
+        <v>117.96967852</v>
       </c>
       <c r="I181" t="n">
-        <v>98.65495629</v>
+        <v>98.52432030999999</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>101.69685093</v>
+        <v>100.35674073</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>102.18974454</v>
+        <v>102.90173346</v>
       </c>
       <c r="E182" t="n">
-        <v>104.77066484</v>
+        <v>99.17374796</v>
       </c>
       <c r="F182" t="n">
-        <v>94.19113016999999</v>
+        <v>108.3417483</v>
       </c>
       <c r="G182" t="n">
-        <v>102.30534089</v>
+        <v>101.10924251</v>
       </c>
       <c r="H182" t="n">
-        <v>96.84493476</v>
+        <v>103.27369752</v>
       </c>
       <c r="I182" t="n">
-        <v>106.72194553</v>
+        <v>99.3584149</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>101.74769896</v>
+        <v>101.22890802</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>102.0921358</v>
+        <v>102.87633435</v>
       </c>
       <c r="E183" t="n">
-        <v>104.90656367</v>
+        <v>100.27183772</v>
       </c>
       <c r="F183" t="n">
-        <v>93.43945232999999</v>
+        <v>109.83144201</v>
       </c>
       <c r="G183" t="n">
-        <v>102.30686782</v>
+        <v>101.7426435</v>
       </c>
       <c r="H183" t="n">
-        <v>96.49511502</v>
+        <v>103.69540157</v>
       </c>
       <c r="I183" t="n">
-        <v>106.95324731</v>
+        <v>101.93572511</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>101.81304854</v>
+        <v>101.36853271</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>102.01263098</v>
+        <v>102.8247054</v>
       </c>
       <c r="E184" t="n">
-        <v>105.01490385</v>
+        <v>101.21266092</v>
       </c>
       <c r="F184" t="n">
-        <v>93.04841746</v>
+        <v>108.44733839</v>
       </c>
       <c r="G184" t="n">
-        <v>102.34042172</v>
+        <v>101.93841257</v>
       </c>
       <c r="H184" t="n">
-        <v>96.22313072999999</v>
+        <v>104.70888565</v>
       </c>
       <c r="I184" t="n">
-        <v>107.3726865</v>
+        <v>101.43498749</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>100.35674073</v>
+        <v>101.31158114</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>102.90173346</v>
+        <v>102.7863777</v>
       </c>
       <c r="E185" t="n">
-        <v>99.17374796</v>
+        <v>102.12075591</v>
       </c>
       <c r="F185" t="n">
-        <v>108.3417483</v>
+        <v>105.35716832</v>
       </c>
       <c r="G185" t="n">
-        <v>101.10924251</v>
+        <v>102.13395265</v>
       </c>
       <c r="H185" t="n">
-        <v>103.27369752</v>
+        <v>103.89734285</v>
       </c>
       <c r="I185" t="n">
-        <v>99.3584149</v>
+        <v>102.76856832</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>101.22890802</v>
+        <v>101.22826589</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>102.87633435</v>
+        <v>102.71657115</v>
       </c>
       <c r="E186" t="n">
-        <v>100.27183772</v>
+        <v>102.31134888</v>
       </c>
       <c r="F186" t="n">
-        <v>109.83144201</v>
+        <v>101.32992815</v>
       </c>
       <c r="G186" t="n">
-        <v>101.7426435</v>
+        <v>102.0278926</v>
       </c>
       <c r="H186" t="n">
-        <v>103.69540157</v>
+        <v>102.41885813</v>
       </c>
       <c r="I186" t="n">
-        <v>101.93572511</v>
+        <v>103.42390538</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>101.36853271</v>
+        <v>101.34660995</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>102.8247054</v>
+        <v>102.60684226</v>
       </c>
       <c r="E187" t="n">
-        <v>101.21266092</v>
+        <v>102.5200274</v>
       </c>
       <c r="F187" t="n">
-        <v>108.44733839</v>
+        <v>99.13958538999999</v>
       </c>
       <c r="G187" t="n">
-        <v>101.93841257</v>
+        <v>101.99930097</v>
       </c>
       <c r="H187" t="n">
-        <v>104.70888565</v>
+        <v>100.53582707</v>
       </c>
       <c r="I187" t="n">
-        <v>101.43498749</v>
+        <v>104.5644125</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>101.31158114</v>
+        <v>101.52247459</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>102.7863777</v>
+        <v>102.50913115</v>
       </c>
       <c r="E188" t="n">
-        <v>102.12075591</v>
+        <v>103.25367834</v>
       </c>
       <c r="F188" t="n">
-        <v>105.35716832</v>
+        <v>97.08590665</v>
       </c>
       <c r="G188" t="n">
-        <v>102.13395265</v>
+        <v>102.10218664</v>
       </c>
       <c r="H188" t="n">
-        <v>103.89734285</v>
+        <v>99.31620823999999</v>
       </c>
       <c r="I188" t="n">
-        <v>102.76856832</v>
+        <v>105.31660301</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>101.22826589</v>
+        <v>101.62747498</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>102.71657115</v>
+        <v>102.41200848</v>
       </c>
       <c r="E189" t="n">
-        <v>102.31134888</v>
+        <v>104.02175741</v>
       </c>
       <c r="F189" t="n">
-        <v>101.32992815</v>
+        <v>95.93178896000001</v>
       </c>
       <c r="G189" t="n">
-        <v>102.0278926</v>
+        <v>102.2983995</v>
       </c>
       <c r="H189" t="n">
-        <v>102.41885813</v>
+        <v>98.44784323</v>
       </c>
       <c r="I189" t="n">
-        <v>103.42390538</v>
+        <v>106.52945954</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>101.34660995</v>
+        <v>101.654596</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>102.60684226</v>
+        <v>102.29992182</v>
       </c>
       <c r="E190" t="n">
-        <v>102.5200274</v>
+        <v>104.49596669</v>
       </c>
       <c r="F190" t="n">
-        <v>99.13958538999999</v>
+        <v>95.16233656</v>
       </c>
       <c r="G190" t="n">
-        <v>101.99930097</v>
+        <v>102.34585045</v>
       </c>
       <c r="H190" t="n">
-        <v>100.53582707</v>
+        <v>97.46961734999999</v>
       </c>
       <c r="I190" t="n">
-        <v>104.5644125</v>
+        <v>106.93898418</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>101.52247459</v>
+        <v>101.69685093</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>102.50913115</v>
+        <v>102.18974454</v>
       </c>
       <c r="E191" t="n">
-        <v>103.25367834</v>
+        <v>104.77066484</v>
       </c>
       <c r="F191" t="n">
-        <v>97.08590665</v>
+        <v>94.19113016999999</v>
       </c>
       <c r="G191" t="n">
-        <v>102.10218664</v>
+        <v>102.30534089</v>
       </c>
       <c r="H191" t="n">
-        <v>99.31620823999999</v>
+        <v>96.84493476</v>
       </c>
       <c r="I191" t="n">
-        <v>105.31660301</v>
+        <v>106.72194553</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>101.62747498</v>
+        <v>101.74769896</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>102.41200848</v>
+        <v>102.0921358</v>
       </c>
       <c r="E192" t="n">
-        <v>104.02175741</v>
+        <v>104.90656367</v>
       </c>
       <c r="F192" t="n">
-        <v>95.93178896000001</v>
+        <v>93.43945232999999</v>
       </c>
       <c r="G192" t="n">
-        <v>102.2983995</v>
+        <v>102.30686782</v>
       </c>
       <c r="H192" t="n">
-        <v>98.44784323</v>
+        <v>96.49511502</v>
       </c>
       <c r="I192" t="n">
-        <v>106.52945954</v>
+        <v>106.95324731</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>101.654596</v>
+        <v>101.81304854</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>102.29992182</v>
+        <v>102.01263098</v>
       </c>
       <c r="E193" t="n">
-        <v>104.49596669</v>
+        <v>105.01490385</v>
       </c>
       <c r="F193" t="n">
-        <v>95.16233656</v>
+        <v>93.04841746</v>
       </c>
       <c r="G193" t="n">
-        <v>102.34585045</v>
+        <v>102.34042172</v>
       </c>
       <c r="H193" t="n">
-        <v>97.46961734999999</v>
+        <v>96.22313072999999</v>
       </c>
       <c r="I193" t="n">
-        <v>106.93898418</v>
+        <v>107.3726865</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>104.552464</v>
+        <v>102.68656102</v>
       </c>
       <c r="C194" t="n">
-        <v>112.391810199999</v>
+        <v>110.83326239</v>
       </c>
       <c r="D194" t="n">
-        <v>100.475233799999</v>
+        <v>100.74808847</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
-        <v>96.81889925</v>
-      </c>
-      <c r="G194" t="n">
-        <v>104.799999999999</v>
-      </c>
+        <v>96.07793900999999</v>
+      </c>
+      <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>96.42615413</v>
+        <v>93.21154645</v>
       </c>
       <c r="I194" t="n">
-        <v>112.3338267</v>
+        <v>114.67658987</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>104.5952359</v>
+        <v>103.07937213</v>
       </c>
       <c r="C195" t="n">
-        <v>111.6238433</v>
+        <v>112.97462102</v>
       </c>
       <c r="D195" t="n">
-        <v>100.4926408</v>
+        <v>100.69073898</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
-        <v>96.91084116</v>
+        <v>96.26182738999999</v>
       </c>
       <c r="G195" t="n">
-        <v>104.8</v>
+        <v>105.7</v>
       </c>
       <c r="H195" t="n">
-        <v>96.95206451999999</v>
+        <v>92.63321015</v>
       </c>
       <c r="I195" t="n">
-        <v>112.6421735</v>
+        <v>123.15420819</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>104.5685029</v>
+        <v>102.951253</v>
       </c>
       <c r="C196" t="n">
-        <v>111.0344896</v>
+        <v>114.13195664</v>
       </c>
       <c r="D196" t="n">
-        <v>100.5302977</v>
+        <v>100.61698587</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>96.79379596</v>
+        <v>95.61320480000001</v>
       </c>
       <c r="G196" t="n">
-        <v>104.6</v>
+        <v>106.4</v>
       </c>
       <c r="H196" t="n">
-        <v>97.43517989999999</v>
+        <v>91.65672902</v>
       </c>
       <c r="I196" t="n">
-        <v>111.7335773</v>
+        <v>127.26885105</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>102.68656102</v>
+        <v>103.24259942</v>
       </c>
       <c r="C197" t="n">
-        <v>110.83326239</v>
+        <v>115.59428474</v>
       </c>
       <c r="D197" t="n">
-        <v>100.74808847</v>
+        <v>100.5695242</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
-        <v>96.07793900999999</v>
-      </c>
-      <c r="G197" t="inlineStr"/>
+        <v>96.27210085999999</v>
+      </c>
+      <c r="G197" t="n">
+        <v>106.6</v>
+      </c>
       <c r="H197" t="n">
-        <v>93.21154645</v>
+        <v>91.77133176</v>
       </c>
       <c r="I197" t="n">
-        <v>114.67658987</v>
+        <v>126.15904074</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>103.07937213</v>
+        <v>103.56164929</v>
       </c>
       <c r="C198" t="n">
-        <v>112.97462102</v>
+        <v>116.63604574</v>
       </c>
       <c r="D198" t="n">
-        <v>100.69073898</v>
+        <v>100.56718171</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
-        <v>96.26182738999999</v>
+        <v>96.92931262</v>
       </c>
       <c r="G198" t="n">
-        <v>105.7</v>
+        <v>106.5</v>
       </c>
       <c r="H198" t="n">
-        <v>92.63321015</v>
+        <v>91.89636199</v>
       </c>
       <c r="I198" t="n">
-        <v>123.15420819</v>
+        <v>122.63459193</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>102.951253</v>
+        <v>103.88383723</v>
       </c>
       <c r="C199" t="n">
-        <v>114.13195664</v>
+        <v>117.07135977</v>
       </c>
       <c r="D199" t="n">
-        <v>100.61698587</v>
+        <v>100.57540812</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
-        <v>95.61320480000001</v>
+        <v>97.45281452</v>
       </c>
       <c r="G199" t="n">
-        <v>106.4</v>
+        <v>106.2</v>
       </c>
       <c r="H199" t="n">
-        <v>91.65672902</v>
+        <v>92.62490802000001</v>
       </c>
       <c r="I199" t="n">
-        <v>127.26885105</v>
+        <v>118.24261088</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>103.24259942</v>
+        <v>104.15926707</v>
       </c>
       <c r="C200" t="n">
-        <v>115.59428474</v>
+        <v>116.19783935</v>
       </c>
       <c r="D200" t="n">
-        <v>100.5695242</v>
+        <v>100.55688902</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
-        <v>96.27210085999999</v>
+        <v>97.53181146</v>
       </c>
       <c r="G200" t="n">
-        <v>106.6</v>
+        <v>105.8</v>
       </c>
       <c r="H200" t="n">
-        <v>91.77133176</v>
+        <v>93.62410555</v>
       </c>
       <c r="I200" t="n">
-        <v>126.15904074</v>
+        <v>115.24560874</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>103.56164929</v>
+        <v>104.3125225</v>
       </c>
       <c r="C201" t="n">
-        <v>116.63604574</v>
+        <v>114.66024558</v>
       </c>
       <c r="D201" t="n">
-        <v>100.56718171</v>
+        <v>100.52141266</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
-        <v>96.92931262</v>
+        <v>96.89940546</v>
       </c>
       <c r="G201" t="n">
-        <v>106.5</v>
+        <v>105.2</v>
       </c>
       <c r="H201" t="n">
-        <v>91.89636199</v>
+        <v>94.27064797</v>
       </c>
       <c r="I201" t="n">
-        <v>122.63459193</v>
+        <v>112.85516754</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>103.88383723</v>
+        <v>104.5049462</v>
       </c>
       <c r="C202" t="n">
-        <v>117.07135977</v>
+        <v>113.4199461</v>
       </c>
       <c r="D202" t="n">
-        <v>100.57540812</v>
+        <v>100.487230499999</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
-        <v>97.45281452</v>
+        <v>96.72795481999989</v>
       </c>
       <c r="G202" t="n">
-        <v>106.2</v>
+        <v>105</v>
       </c>
       <c r="H202" t="n">
-        <v>92.62490802000001</v>
+        <v>95.49550422</v>
       </c>
       <c r="I202" t="n">
-        <v>118.24261088</v>
+        <v>112.267456199999</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>104.15926707</v>
+        <v>104.552464</v>
       </c>
       <c r="C203" t="n">
-        <v>116.19783935</v>
+        <v>112.391810199999</v>
       </c>
       <c r="D203" t="n">
-        <v>100.55688902</v>
+        <v>100.475233799999</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>97.53181146</v>
+        <v>96.81889925</v>
       </c>
       <c r="G203" t="n">
-        <v>105.8</v>
+        <v>104.799999999999</v>
       </c>
       <c r="H203" t="n">
-        <v>93.62410555</v>
+        <v>96.42615413</v>
       </c>
       <c r="I203" t="n">
-        <v>115.24560874</v>
+        <v>112.3338267</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>104.3125225</v>
+        <v>104.5952359</v>
       </c>
       <c r="C204" t="n">
-        <v>114.66024558</v>
+        <v>111.6238433</v>
       </c>
       <c r="D204" t="n">
-        <v>100.52141266</v>
+        <v>100.4926408</v>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="n">
-        <v>96.89940546</v>
+        <v>96.91084116</v>
       </c>
       <c r="G204" t="n">
-        <v>105.2</v>
+        <v>104.8</v>
       </c>
       <c r="H204" t="n">
-        <v>94.27064797</v>
+        <v>96.95206451999999</v>
       </c>
       <c r="I204" t="n">
-        <v>112.85516754</v>
+        <v>112.6421735</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>104.5049462</v>
+        <v>104.5685029</v>
       </c>
       <c r="C205" t="n">
-        <v>113.4199461</v>
+        <v>111.0344896</v>
       </c>
       <c r="D205" t="n">
-        <v>100.487230499999</v>
+        <v>100.5302977</v>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
-        <v>96.72795481999989</v>
+        <v>96.79379596</v>
       </c>
       <c r="G205" t="n">
-        <v>105</v>
+        <v>104.6</v>
       </c>
       <c r="H205" t="n">
-        <v>95.49550422</v>
+        <v>97.43517989999999</v>
       </c>
       <c r="I205" t="n">
-        <v>112.267456199999</v>
+        <v>111.7335773</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>104.5601218</v>
+        <v>106.413361</v>
       </c>
       <c r="C206" t="n">
-        <v>94.90278004</v>
+        <v>105.7277392</v>
       </c>
       <c r="D206" t="n">
-        <v>101.4728561</v>
+        <v>101.2481293</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
-        <v>93.53502066999999</v>
+        <v>90.91232419000001</v>
       </c>
       <c r="G206" t="n">
-        <v>98.40000000000001</v>
+        <v>102.7</v>
       </c>
       <c r="H206" t="n">
-        <v>103.5846797</v>
+        <v>104.8362146</v>
       </c>
       <c r="I206" t="n">
-        <v>92.05315809</v>
+        <v>101.6093921</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>104.4403042</v>
+        <v>104.24056515</v>
       </c>
       <c r="C207" t="n">
-        <v>94.93286418</v>
+        <v>102.76113871</v>
       </c>
       <c r="D207" t="n">
-        <v>101.4749962</v>
+        <v>101.21946798</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>94.62113757</v>
+        <v>88.01907021</v>
       </c>
       <c r="G207" t="n">
-        <v>98.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H207" t="n">
-        <v>103.5924006</v>
+        <v>103.43651104</v>
       </c>
       <c r="I207" t="n">
-        <v>91.91420798</v>
+        <v>85.98899213999999</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>104.4051533</v>
+        <v>104.4327372</v>
       </c>
       <c r="C208" t="n">
-        <v>95.00436565</v>
+        <v>101.3933886</v>
       </c>
       <c r="D208" t="n">
-        <v>101.4619331</v>
+        <v>101.2752463</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="n">
-        <v>96.00046055</v>
+        <v>88.08788288</v>
       </c>
       <c r="G208" t="n">
-        <v>98.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="H208" t="n">
-        <v>103.8159603</v>
+        <v>103.2759221</v>
       </c>
       <c r="I208" t="n">
-        <v>91.86823244999999</v>
+        <v>81.16531634</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>106.413361</v>
+        <v>104.7971484</v>
       </c>
       <c r="C209" t="n">
-        <v>105.7277392</v>
+        <v>99.85854848</v>
       </c>
       <c r="D209" t="n">
-        <v>101.2481293</v>
+        <v>101.3274201</v>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
-        <v>90.91232419000001</v>
+        <v>88.20180499</v>
       </c>
       <c r="G209" t="n">
-        <v>102.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H209" t="n">
-        <v>104.8362146</v>
+        <v>103.9267369</v>
       </c>
       <c r="I209" t="n">
-        <v>101.6093921</v>
+        <v>80.51518723</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>104.24056515</v>
+        <v>105.2111405</v>
       </c>
       <c r="C210" t="n">
-        <v>102.76113871</v>
+        <v>98.28381209</v>
       </c>
       <c r="D210" t="n">
-        <v>101.21946798</v>
+        <v>101.3452964</v>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="n">
-        <v>88.01907021</v>
+        <v>87.69889863</v>
       </c>
       <c r="G210" t="n">
-        <v>99.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="H210" t="n">
-        <v>103.43651104</v>
+        <v>105.4904147</v>
       </c>
       <c r="I210" t="n">
-        <v>85.98899213999999</v>
+        <v>82.55558219</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>104.4327372</v>
+        <v>105.1958786</v>
       </c>
       <c r="C211" t="n">
-        <v>101.3933886</v>
+        <v>96.76575611</v>
       </c>
       <c r="D211" t="n">
-        <v>101.2752463</v>
+        <v>101.3747861</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
-        <v>88.08788288</v>
+        <v>88.18499325000001</v>
       </c>
       <c r="G211" t="n">
         <v>97.90000000000001</v>
       </c>
       <c r="H211" t="n">
-        <v>103.2759221</v>
+        <v>106.1989172</v>
       </c>
       <c r="I211" t="n">
-        <v>81.16531634</v>
+        <v>85.33185826</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>104.7971484</v>
+        <v>105.0697629</v>
       </c>
       <c r="C212" t="n">
-        <v>99.85854848</v>
+        <v>95.80819142</v>
       </c>
       <c r="D212" t="n">
-        <v>101.3274201</v>
+        <v>101.4022749</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>88.20180499</v>
+        <v>89.13185136</v>
       </c>
       <c r="G212" t="n">
-        <v>97.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H212" t="n">
-        <v>103.9267369</v>
+        <v>105.5845393</v>
       </c>
       <c r="I212" t="n">
-        <v>80.51518723</v>
+        <v>87.95438901999999</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>105.2111405</v>
+        <v>104.9068943</v>
       </c>
       <c r="C213" t="n">
-        <v>98.28381209</v>
+        <v>95.27765998</v>
       </c>
       <c r="D213" t="n">
-        <v>101.3452964</v>
+        <v>101.4261196</v>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="n">
-        <v>87.69889863</v>
+        <v>91.00812254</v>
       </c>
       <c r="G213" t="n">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="H213" t="n">
-        <v>105.4904147</v>
+        <v>104.9298667</v>
       </c>
       <c r="I213" t="n">
-        <v>82.55558219</v>
+        <v>90.26811136000001</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>105.1958786</v>
+        <v>104.6407371</v>
       </c>
       <c r="C214" t="n">
-        <v>96.76575611</v>
+        <v>94.96424319</v>
       </c>
       <c r="D214" t="n">
-        <v>101.3747861</v>
+        <v>101.4555246</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="n">
-        <v>88.18499325000001</v>
+        <v>92.47683256000001</v>
       </c>
       <c r="G214" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="H214" t="n">
-        <v>106.1989172</v>
+        <v>104.051325</v>
       </c>
       <c r="I214" t="n">
-        <v>85.33185826</v>
+        <v>91.19059484</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>105.0697629</v>
+        <v>104.5601218</v>
       </c>
       <c r="C215" t="n">
-        <v>95.80819142</v>
+        <v>94.90278004</v>
       </c>
       <c r="D215" t="n">
-        <v>101.4022749</v>
+        <v>101.4728561</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="n">
-        <v>89.13185136</v>
+        <v>93.53502066999999</v>
       </c>
       <c r="G215" t="n">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H215" t="n">
-        <v>105.5845393</v>
+        <v>103.5846797</v>
       </c>
       <c r="I215" t="n">
-        <v>87.95438901999999</v>
+        <v>92.05315809</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>104.9068943</v>
+        <v>104.4403042</v>
       </c>
       <c r="C216" t="n">
-        <v>95.27765998</v>
+        <v>94.93286418</v>
       </c>
       <c r="D216" t="n">
-        <v>101.4261196</v>
+        <v>101.4749962</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="n">
-        <v>91.00812254</v>
+        <v>94.62113757</v>
       </c>
       <c r="G216" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="H216" t="n">
-        <v>104.9298667</v>
+        <v>103.5924006</v>
       </c>
       <c r="I216" t="n">
-        <v>90.26811136000001</v>
+        <v>91.91420798</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>104.6407371</v>
+        <v>104.4051533</v>
       </c>
       <c r="C217" t="n">
-        <v>94.96424319</v>
+        <v>95.00436565</v>
       </c>
       <c r="D217" t="n">
-        <v>101.4555246</v>
+        <v>101.4619331</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="n">
-        <v>92.47683256000001</v>
+        <v>96.00046055</v>
       </c>
       <c r="G217" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H217" t="n">
-        <v>104.051325</v>
+        <v>103.8159603</v>
       </c>
       <c r="I217" t="n">
-        <v>91.19059484</v>
+        <v>91.86823244999999</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>102.3344482</v>
+        <v>102.4150281</v>
       </c>
       <c r="C218" t="n">
-        <v>95.27734950999999</v>
+        <v>94.10588506000001</v>
       </c>
       <c r="D218" t="n">
-        <v>100.81637818</v>
+        <v>101.1979638</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="n">
-        <v>113.93689479</v>
+        <v>114.2192474</v>
       </c>
       <c r="G218" t="n">
-        <v>101.6</v>
+        <v>99.5</v>
       </c>
       <c r="H218" t="n">
-        <v>104.46024622</v>
+        <v>106.3708737</v>
       </c>
       <c r="I218" t="n">
-        <v>107.98909078</v>
+        <v>94.22586681999999</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>102.30159198</v>
+        <v>105.5730902</v>
       </c>
       <c r="C219" t="n">
-        <v>95.77045998</v>
+        <v>95.47217685</v>
       </c>
       <c r="D219" t="n">
-        <v>100.7951237</v>
+        <v>101.1627094</v>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="n">
-        <v>113.17674198</v>
+        <v>118.216791</v>
       </c>
       <c r="G219" t="n">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="H219" t="n">
-        <v>105.22836751</v>
+        <v>107.5593893</v>
       </c>
       <c r="I219" t="n">
-        <v>107.40728189</v>
+        <v>105.6337318</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>102.27704224</v>
+        <v>105.5778333</v>
       </c>
       <c r="C220" t="n">
-        <v>96.18970261</v>
+        <v>94.95942381</v>
       </c>
       <c r="D220" t="n">
-        <v>100.76997956</v>
+        <v>101.1475138</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="n">
-        <v>111.98459957</v>
+        <v>118.0093898</v>
       </c>
       <c r="G220" t="n">
-        <v>101.8</v>
+        <v>102</v>
       </c>
       <c r="H220" t="n">
-        <v>105.58259064</v>
+        <v>107.5176723</v>
       </c>
       <c r="I220" t="n">
-        <v>107.13811453</v>
+        <v>106.6284381</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>102.4150281</v>
+        <v>104.9</v>
       </c>
       <c r="C221" t="n">
-        <v>94.10588506000001</v>
+        <v>94</v>
       </c>
       <c r="D221" t="n">
-        <v>101.1979638</v>
+        <v>101.1</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="n">
-        <v>114.2192474</v>
+        <v>117.3</v>
       </c>
       <c r="G221" t="n">
-        <v>99.5</v>
+        <v>101.7</v>
       </c>
       <c r="H221" t="n">
-        <v>106.3708737</v>
+        <v>106.7</v>
       </c>
       <c r="I221" t="n">
-        <v>94.22586681999999</v>
+        <v>107</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>105.5730902</v>
+        <v>104</v>
       </c>
       <c r="C222" t="n">
-        <v>95.47217685</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D222" t="n">
-        <v>101.1627094</v>
+        <v>101.1</v>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="n">
-        <v>118.216791</v>
+        <v>117.9</v>
       </c>
       <c r="G222" t="n">
-        <v>101.9</v>
+        <v>101.4</v>
       </c>
       <c r="H222" t="n">
-        <v>107.5593893</v>
+        <v>104.7</v>
       </c>
       <c r="I222" t="n">
-        <v>105.6337318</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>105.5778333</v>
+        <v>103.3754159</v>
       </c>
       <c r="C223" t="n">
-        <v>94.95942381</v>
+        <v>93.3551044</v>
       </c>
       <c r="D223" t="n">
-        <v>101.1475138</v>
+        <v>101.00460951</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="n">
-        <v>118.0093898</v>
+        <v>117.47330032</v>
       </c>
       <c r="G223" t="n">
-        <v>102</v>
+        <v>101.2</v>
       </c>
       <c r="H223" t="n">
-        <v>107.5176723</v>
+        <v>103.02104457</v>
       </c>
       <c r="I223" t="n">
-        <v>106.6284381</v>
+        <v>107.78499277</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>104.9</v>
+        <v>102.90713105</v>
       </c>
       <c r="C224" t="n">
-        <v>94</v>
+        <v>93.59396003000001</v>
       </c>
       <c r="D224" t="n">
-        <v>101.1</v>
+        <v>100.94593852</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="n">
-        <v>117.3</v>
+        <v>116.63853819</v>
       </c>
       <c r="G224" t="n">
-        <v>101.7</v>
+        <v>101.1</v>
       </c>
       <c r="H224" t="n">
-        <v>106.7</v>
+        <v>102.67011389</v>
       </c>
       <c r="I224" t="n">
-        <v>107</v>
+        <v>107.24245838</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>104</v>
+        <v>102.66094798</v>
       </c>
       <c r="C225" t="n">
-        <v>93.40000000000001</v>
+        <v>94.13087848000001</v>
       </c>
       <c r="D225" t="n">
-        <v>101.1</v>
+        <v>100.88859358</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="n">
-        <v>117.9</v>
+        <v>115.73014275</v>
       </c>
       <c r="G225" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="H225" t="n">
-        <v>104.7</v>
+        <v>102.99258095</v>
       </c>
       <c r="I225" t="n">
-        <v>107.5</v>
+        <v>106.86224415</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>103.3754159</v>
+        <v>102.49970362</v>
       </c>
       <c r="C226" t="n">
-        <v>93.3551044</v>
+        <v>94.72386107</v>
       </c>
       <c r="D226" t="n">
-        <v>101.00460951</v>
+        <v>100.84512466</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="n">
-        <v>117.47330032</v>
+        <v>114.60595876</v>
       </c>
       <c r="G226" t="n">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="H226" t="n">
-        <v>103.02104457</v>
+        <v>103.72867114</v>
       </c>
       <c r="I226" t="n">
-        <v>107.78499277</v>
+        <v>107.74215688</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>102.90713105</v>
+        <v>102.3344482</v>
       </c>
       <c r="C227" t="n">
-        <v>93.59396003000001</v>
+        <v>95.27734950999999</v>
       </c>
       <c r="D227" t="n">
-        <v>100.94593852</v>
+        <v>100.81637818</v>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="n">
-        <v>116.63853819</v>
+        <v>113.93689479</v>
       </c>
       <c r="G227" t="n">
-        <v>101.1</v>
+        <v>101.6</v>
       </c>
       <c r="H227" t="n">
-        <v>102.67011389</v>
+        <v>104.46024622</v>
       </c>
       <c r="I227" t="n">
-        <v>107.24245838</v>
+        <v>107.98909078</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>102.66094798</v>
+        <v>102.30159198</v>
       </c>
       <c r="C228" t="n">
-        <v>94.13087848000001</v>
+        <v>95.77045998</v>
       </c>
       <c r="D228" t="n">
-        <v>100.88859358</v>
+        <v>100.7951237</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="n">
-        <v>115.73014275</v>
+        <v>113.17674198</v>
       </c>
       <c r="G228" t="n">
-        <v>101.2</v>
+        <v>101.7</v>
       </c>
       <c r="H228" t="n">
-        <v>102.99258095</v>
+        <v>105.22836751</v>
       </c>
       <c r="I228" t="n">
-        <v>106.86224415</v>
+        <v>107.40728189</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>102.49970362</v>
+        <v>102.27704224</v>
       </c>
       <c r="C229" t="n">
-        <v>94.72386107</v>
+        <v>96.18970261</v>
       </c>
       <c r="D229" t="n">
-        <v>100.84512466</v>
+        <v>100.76997956</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="n">
-        <v>114.60595876</v>
+        <v>111.98459957</v>
       </c>
       <c r="G229" t="n">
-        <v>101.4</v>
+        <v>101.8</v>
       </c>
       <c r="H229" t="n">
-        <v>103.72867114</v>
+        <v>105.58259064</v>
       </c>
       <c r="I229" t="n">
-        <v>107.74215688</v>
+        <v>107.13811453</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>100.01535967</v>
+        <v>101.23484864</v>
       </c>
       <c r="C230" t="n">
-        <v>120.48989303</v>
+        <v>100.19451642</v>
       </c>
       <c r="D230" t="n">
-        <v>100.5295625</v>
+        <v>100.45680832</v>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="n">
-        <v>104.47594797</v>
+        <v>100.29618555</v>
       </c>
       <c r="G230" t="n">
-        <v>107.4</v>
+        <v>101.9</v>
       </c>
       <c r="H230" t="n">
-        <v>116.47388309</v>
+        <v>105.85768356</v>
       </c>
       <c r="I230" t="n">
-        <v>103.50580226</v>
+        <v>103.78574164</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>100.2217752</v>
+        <v>99.2737679</v>
       </c>
       <c r="C231" t="n">
-        <v>125.57047482</v>
+        <v>99.64209159000001</v>
       </c>
       <c r="D231" t="n">
-        <v>100.54123393</v>
+        <v>100.47651378</v>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="n">
-        <v>105.00879883</v>
+        <v>97.78302042999999</v>
       </c>
       <c r="G231" t="n">
-        <v>108.5</v>
+        <v>101.3</v>
       </c>
       <c r="H231" t="n">
-        <v>114.2887084</v>
+        <v>105.32158824</v>
       </c>
       <c r="I231" t="n">
-        <v>103.53817034</v>
+        <v>102.63017686</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>100.30676889</v>
+        <v>98.51929677</v>
       </c>
       <c r="C232" t="n">
-        <v>129.10446644</v>
+        <v>101.26983404</v>
       </c>
       <c r="D232" t="n">
-        <v>100.54848822</v>
+        <v>100.46064557</v>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="n">
-        <v>105.11041621</v>
+        <v>97.89717613000001</v>
       </c>
       <c r="G232" t="n">
-        <v>109.2</v>
+        <v>102.2</v>
       </c>
       <c r="H232" t="n">
-        <v>112.3458867</v>
+        <v>106.1279169</v>
       </c>
       <c r="I232" t="n">
-        <v>104.12504674</v>
+        <v>106.9046661</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>101.23484864</v>
+        <v>98.54182428</v>
       </c>
       <c r="C233" t="n">
-        <v>100.19451642</v>
+        <v>103.36298375</v>
       </c>
       <c r="D233" t="n">
-        <v>100.45680832</v>
+        <v>100.45623607</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>100.29618555</v>
+        <v>99.26410850000001</v>
       </c>
       <c r="G233" t="n">
-        <v>101.9</v>
+        <v>103.2</v>
       </c>
       <c r="H233" t="n">
-        <v>105.85768356</v>
+        <v>107.56698691</v>
       </c>
       <c r="I233" t="n">
-        <v>103.78574164</v>
+        <v>109.32705634</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>99.2737679</v>
+        <v>98.74509998000001</v>
       </c>
       <c r="C234" t="n">
-        <v>99.64209159000001</v>
+        <v>105.07951686</v>
       </c>
       <c r="D234" t="n">
-        <v>100.47651378</v>
+        <v>100.46200619</v>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="n">
-        <v>97.78302042999999</v>
+        <v>101.07699332</v>
       </c>
       <c r="G234" t="n">
-        <v>101.3</v>
+        <v>104</v>
       </c>
       <c r="H234" t="n">
-        <v>105.32158824</v>
+        <v>111.28476983</v>
       </c>
       <c r="I234" t="n">
-        <v>102.63017686</v>
+        <v>110.04849097</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>98.51929677</v>
+        <v>98.86085687000001</v>
       </c>
       <c r="C235" t="n">
-        <v>101.26983404</v>
+        <v>106.56509287</v>
       </c>
       <c r="D235" t="n">
-        <v>100.46064557</v>
+        <v>100.47768217</v>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
-        <v>97.89717613000001</v>
+        <v>101.91115551</v>
       </c>
       <c r="G235" t="n">
-        <v>102.2</v>
+        <v>104.7</v>
       </c>
       <c r="H235" t="n">
-        <v>106.1279169</v>
+        <v>116.11525811</v>
       </c>
       <c r="I235" t="n">
-        <v>106.9046661</v>
+        <v>109.17799405</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>98.54182428</v>
+        <v>99.05510681</v>
       </c>
       <c r="C236" t="n">
-        <v>103.36298375</v>
+        <v>108.18370966</v>
       </c>
       <c r="D236" t="n">
-        <v>100.45623607</v>
+        <v>100.4953125</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="n">
-        <v>99.26410850000001</v>
+        <v>103.10170514</v>
       </c>
       <c r="G236" t="n">
-        <v>103.2</v>
+        <v>105.3</v>
       </c>
       <c r="H236" t="n">
-        <v>107.56698691</v>
+        <v>119.07329658</v>
       </c>
       <c r="I236" t="n">
-        <v>109.32705634</v>
+        <v>108.64827848</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>98.74509998000001</v>
+        <v>99.34929812999999</v>
       </c>
       <c r="C237" t="n">
-        <v>105.07951686</v>
+        <v>111.043786</v>
       </c>
       <c r="D237" t="n">
-        <v>100.46200619</v>
+        <v>100.52114626</v>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="n">
-        <v>101.07699332</v>
+        <v>103.17411877</v>
       </c>
       <c r="G237" t="n">
-        <v>104</v>
+        <v>105.9</v>
       </c>
       <c r="H237" t="n">
-        <v>111.28476983</v>
+        <v>119.64038539</v>
       </c>
       <c r="I237" t="n">
-        <v>110.04849097</v>
+        <v>107.45244673</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>98.86085687000001</v>
+        <v>99.72783862999999</v>
       </c>
       <c r="C238" t="n">
-        <v>106.56509287</v>
+        <v>115.14223421</v>
       </c>
       <c r="D238" t="n">
-        <v>100.47768217</v>
+        <v>100.52831124</v>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="n">
-        <v>101.91115551</v>
+        <v>103.77720785</v>
       </c>
       <c r="G238" t="n">
-        <v>104.7</v>
+        <v>106.5</v>
       </c>
       <c r="H238" t="n">
-        <v>116.11525811</v>
+        <v>118.34028414</v>
       </c>
       <c r="I238" t="n">
-        <v>109.17799405</v>
+        <v>105.11275764</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>99.05510681</v>
+        <v>100.01535967</v>
       </c>
       <c r="C239" t="n">
-        <v>108.18370966</v>
+        <v>120.48989303</v>
       </c>
       <c r="D239" t="n">
-        <v>100.4953125</v>
+        <v>100.5295625</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="n">
-        <v>103.10170514</v>
+        <v>104.47594797</v>
       </c>
       <c r="G239" t="n">
-        <v>105.3</v>
+        <v>107.4</v>
       </c>
       <c r="H239" t="n">
-        <v>119.07329658</v>
+        <v>116.47388309</v>
       </c>
       <c r="I239" t="n">
-        <v>108.64827848</v>
+        <v>103.50580226</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>99.34929812999999</v>
+        <v>100.2217752</v>
       </c>
       <c r="C240" t="n">
-        <v>111.043786</v>
+        <v>125.57047482</v>
       </c>
       <c r="D240" t="n">
-        <v>100.52114626</v>
+        <v>100.54123393</v>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="n">
-        <v>103.17411877</v>
+        <v>105.00879883</v>
       </c>
       <c r="G240" t="n">
-        <v>105.9</v>
+        <v>108.5</v>
       </c>
       <c r="H240" t="n">
-        <v>119.64038539</v>
+        <v>114.2887084</v>
       </c>
       <c r="I240" t="n">
-        <v>107.45244673</v>
+        <v>103.53817034</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>99.72783862999999</v>
+        <v>100.30676889</v>
       </c>
       <c r="C241" t="n">
-        <v>115.14223421</v>
+        <v>129.10446644</v>
       </c>
       <c r="D241" t="n">
-        <v>100.52831124</v>
+        <v>100.54848822</v>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="n">
-        <v>103.77720785</v>
+        <v>105.11041621</v>
       </c>
       <c r="G241" t="n">
-        <v>106.5</v>
+        <v>109.2</v>
       </c>
       <c r="H241" t="n">
-        <v>118.34028414</v>
+        <v>112.3458867</v>
       </c>
       <c r="I241" t="n">
-        <v>105.11275764</v>
+        <v>104.12504674</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>103.3</v>
+        <v>103.75160177</v>
       </c>
       <c r="C242" t="n">
-        <v>150.7</v>
+        <v>176.69469</v>
       </c>
       <c r="D242" t="n">
-        <v>101.2</v>
+        <v>100.45954383</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="n">
-        <v>91.5</v>
+        <v>102.41688857</v>
       </c>
       <c r="G242" t="n">
-        <v>113</v>
+        <v>120.6</v>
       </c>
       <c r="H242" t="n">
-        <v>86.3</v>
+        <v>94.98365799</v>
       </c>
       <c r="I242" t="n">
-        <v>107.1</v>
+        <v>117.14019778</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>103.1</v>
+        <v>103.26240035</v>
       </c>
       <c r="C243" t="n">
-        <v>143.1</v>
+        <v>182.15624254</v>
       </c>
       <c r="D243" t="n">
-        <v>101.2</v>
+        <v>100.5731055</v>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="n">
-        <v>90.7</v>
+        <v>101.71627</v>
       </c>
       <c r="G243" t="n">
-        <v>111.5</v>
+        <v>121.3</v>
       </c>
       <c r="H243" t="n">
-        <v>87.59999999999999</v>
+        <v>94.70422805</v>
       </c>
       <c r="I243" t="n">
-        <v>107.2</v>
+        <v>113.77747557</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>103</v>
+        <v>103.12523508</v>
       </c>
       <c r="C244" t="n">
-        <v>138.4</v>
+        <v>180.77994788</v>
       </c>
       <c r="D244" t="n">
-        <v>101.2</v>
+        <v>100.62570202</v>
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="n">
-        <v>90.59999999999999</v>
+        <v>101.76131693</v>
       </c>
       <c r="G244" t="n">
-        <v>110.6</v>
+        <v>120.3</v>
       </c>
       <c r="H244" t="n">
-        <v>88.90000000000001</v>
+        <v>94.42687586</v>
       </c>
       <c r="I244" t="n">
-        <v>107.1</v>
+        <v>109.03141528</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>103.75160177</v>
+        <v>102.92455011</v>
       </c>
       <c r="C245" t="n">
-        <v>176.69469</v>
+        <v>177.23315407</v>
       </c>
       <c r="D245" t="n">
-        <v>100.45954383</v>
+        <v>100.75684711</v>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="n">
-        <v>102.41688857</v>
+        <v>100.65662869</v>
       </c>
       <c r="G245" t="n">
-        <v>120.6</v>
+        <v>118.9</v>
       </c>
       <c r="H245" t="n">
-        <v>94.98365799</v>
+        <v>93.16132223</v>
       </c>
       <c r="I245" t="n">
-        <v>117.14019778</v>
+        <v>105.88461406</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>103.26240035</v>
+        <v>103.07744124</v>
       </c>
       <c r="C246" t="n">
-        <v>182.15624254</v>
+        <v>173.24830746</v>
       </c>
       <c r="D246" t="n">
-        <v>100.5731055</v>
+        <v>100.90670582</v>
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>101.71627</v>
+        <v>97.97118678</v>
       </c>
       <c r="G246" t="n">
-        <v>121.3</v>
+        <v>117.2</v>
       </c>
       <c r="H246" t="n">
-        <v>94.70422805</v>
+        <v>90.39771174000001</v>
       </c>
       <c r="I246" t="n">
-        <v>113.77747557</v>
+        <v>103.22622828</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>103.12523508</v>
+        <v>103.35312335</v>
       </c>
       <c r="C247" t="n">
-        <v>180.77994788</v>
+        <v>170.54708125</v>
       </c>
       <c r="D247" t="n">
-        <v>100.62570202</v>
+        <v>101.01728033</v>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="n">
-        <v>101.76131693</v>
+        <v>96.03122884</v>
       </c>
       <c r="G247" t="n">
-        <v>120.3</v>
+        <v>116.2</v>
       </c>
       <c r="H247" t="n">
-        <v>94.42687586</v>
+        <v>86.72736585</v>
       </c>
       <c r="I247" t="n">
-        <v>109.03141528</v>
+        <v>103.36513187</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>102.92455011</v>
+        <v>103.54944097</v>
       </c>
       <c r="C248" t="n">
-        <v>177.23315407</v>
+        <v>169.1075074</v>
       </c>
       <c r="D248" t="n">
-        <v>100.75684711</v>
+        <v>101.0936799</v>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="n">
-        <v>100.65662869</v>
+        <v>94.46073122999999</v>
       </c>
       <c r="G248" t="n">
-        <v>118.9</v>
+        <v>115.8</v>
       </c>
       <c r="H248" t="n">
-        <v>93.16132223</v>
+        <v>84.56051929</v>
       </c>
       <c r="I248" t="n">
-        <v>105.88461406</v>
+        <v>103.95194516</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>103.07744124</v>
+        <v>103.52632588</v>
       </c>
       <c r="C249" t="n">
-        <v>173.24830746</v>
+        <v>165.08624166</v>
       </c>
       <c r="D249" t="n">
-        <v>100.90670582</v>
+        <v>101.14479324</v>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="n">
-        <v>97.97118678</v>
+        <v>93.72342881</v>
       </c>
       <c r="G249" t="n">
-        <v>117.2</v>
+        <v>115.2</v>
       </c>
       <c r="H249" t="n">
-        <v>90.39771174000001</v>
+        <v>84.03845651</v>
       </c>
       <c r="I249" t="n">
-        <v>103.22622828</v>
+        <v>104.85189778</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>103.35312335</v>
+        <v>103.41845869</v>
       </c>
       <c r="C250" t="n">
-        <v>170.54708125</v>
+        <v>158.88221009</v>
       </c>
       <c r="D250" t="n">
-        <v>101.01728033</v>
+        <v>101.179824</v>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="n">
-        <v>96.03122884</v>
+        <v>92.5260399</v>
       </c>
       <c r="G250" t="n">
-        <v>116.2</v>
+        <v>114.3</v>
       </c>
       <c r="H250" t="n">
-        <v>86.72736585</v>
+        <v>84.93701435</v>
       </c>
       <c r="I250" t="n">
-        <v>103.36513187</v>
+        <v>106.10756253</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>103.54944097</v>
+        <v>103.3</v>
       </c>
       <c r="C251" t="n">
-        <v>169.1075074</v>
+        <v>150.7</v>
       </c>
       <c r="D251" t="n">
-        <v>101.0936799</v>
+        <v>101.2</v>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="n">
-        <v>94.46073122999999</v>
+        <v>91.5</v>
       </c>
       <c r="G251" t="n">
-        <v>115.8</v>
+        <v>113</v>
       </c>
       <c r="H251" t="n">
-        <v>84.56051929</v>
+        <v>86.3</v>
       </c>
       <c r="I251" t="n">
-        <v>103.95194516</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>103.52632588</v>
+        <v>103.1</v>
       </c>
       <c r="C252" t="n">
-        <v>165.08624166</v>
+        <v>143.1</v>
       </c>
       <c r="D252" t="n">
-        <v>101.14479324</v>
+        <v>101.2</v>
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>93.72342881</v>
+        <v>90.7</v>
       </c>
       <c r="G252" t="n">
-        <v>115.2</v>
+        <v>111.5</v>
       </c>
       <c r="H252" t="n">
-        <v>84.03845651</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="I252" t="n">
-        <v>104.85189778</v>
+        <v>107.2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>103.41845869</v>
+        <v>103</v>
       </c>
       <c r="C253" t="n">
-        <v>158.88221009</v>
+        <v>138.4</v>
       </c>
       <c r="D253" t="n">
-        <v>101.179824</v>
+        <v>101.2</v>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>92.5260399</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="G253" t="n">
-        <v>114.3</v>
+        <v>110.6</v>
       </c>
       <c r="H253" t="n">
-        <v>84.93701435</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I253" t="n">
-        <v>106.10756253</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>109.7</v>
+        <v>100.2</v>
       </c>
       <c r="C254" t="n">
-        <v>83.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D254" t="n">
-        <v>101</v>
+        <v>101.6</v>
       </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="n">
-        <v>109.9</v>
+        <v>101.2</v>
       </c>
       <c r="G254" t="n">
-        <v>98.3</v>
+        <v>101.6</v>
       </c>
       <c r="H254" t="n">
-        <v>102.5</v>
+        <v>101.3</v>
       </c>
       <c r="I254" t="n">
-        <v>102.7</v>
+        <v>110.9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>109.6</v>
+        <v>103.1</v>
       </c>
       <c r="C255" t="n">
-        <v>83.2</v>
+        <v>96</v>
       </c>
       <c r="D255" t="n">
-        <v>101.1</v>
+        <v>101.5</v>
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>110.6</v>
+        <v>102.1</v>
       </c>
       <c r="G255" t="n">
-        <v>98.59999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="H255" t="n">
-        <v>102.7</v>
+        <v>102.2</v>
       </c>
       <c r="I255" t="n">
-        <v>105.1</v>
+        <v>106.9</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>109.4</v>
+        <v>104.7</v>
       </c>
       <c r="C256" t="n">
-        <v>82.8</v>
+        <v>94.3</v>
       </c>
       <c r="D256" t="n">
-        <v>101.1</v>
+        <v>101.5</v>
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>110.8</v>
+        <v>102.5</v>
       </c>
       <c r="G256" t="n">
-        <v>98.59999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="H256" t="n">
         <v>102.8</v>
       </c>
       <c r="I256" t="n">
-        <v>105.6</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>100.2</v>
+        <v>106.4</v>
       </c>
       <c r="C257" t="n">
-        <v>99.59999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="D257" t="n">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="n">
-        <v>101.2</v>
+        <v>103.5</v>
       </c>
       <c r="G257" t="n">
-        <v>101.6</v>
+        <v>100</v>
       </c>
       <c r="H257" t="n">
-        <v>101.3</v>
+        <v>102.8</v>
       </c>
       <c r="I257" t="n">
-        <v>110.9</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>103.1</v>
+        <v>107.8</v>
       </c>
       <c r="C258" t="n">
-        <v>96</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D258" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="n">
-        <v>102.1</v>
+        <v>105.5</v>
       </c>
       <c r="G258" t="n">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
       <c r="H258" t="n">
-        <v>102.2</v>
+        <v>102.5</v>
       </c>
       <c r="I258" t="n">
-        <v>106.9</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>104.7</v>
+        <v>108.9</v>
       </c>
       <c r="C259" t="n">
-        <v>94.3</v>
+        <v>90.5</v>
       </c>
       <c r="D259" t="n">
-        <v>101.5</v>
+        <v>101.2</v>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>102.5</v>
+        <v>107.4</v>
       </c>
       <c r="G259" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="H259" t="n">
-        <v>102.8</v>
+        <v>102.6</v>
       </c>
       <c r="I259" t="n">
-        <v>104.8</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>106.4</v>
+        <v>109.6</v>
       </c>
       <c r="C260" t="n">
-        <v>93.2</v>
+        <v>88.2</v>
       </c>
       <c r="D260" t="n">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>103.5</v>
+        <v>108.5</v>
       </c>
       <c r="G260" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="H260" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="I260" t="n">
-        <v>103.4</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>107.8</v>
+        <v>109.9</v>
       </c>
       <c r="C261" t="n">
-        <v>92.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="D261" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>105.5</v>
+        <v>109.2</v>
       </c>
       <c r="G261" t="n">
-        <v>100.1</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H261" t="n">
-        <v>102.5</v>
+        <v>103.2</v>
       </c>
       <c r="I261" t="n">
-        <v>103.7</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>108.9</v>
+        <v>109.8</v>
       </c>
       <c r="C262" t="n">
-        <v>90.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D262" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="n">
-        <v>107.4</v>
+        <v>109.6</v>
       </c>
       <c r="G262" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H262" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="I262" t="n">
-        <v>103.2</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="C263" t="n">
-        <v>88.2</v>
+        <v>83.5</v>
       </c>
       <c r="D263" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>108.5</v>
+        <v>109.9</v>
       </c>
       <c r="G263" t="n">
-        <v>99.3</v>
+        <v>98.3</v>
       </c>
       <c r="H263" t="n">
-        <v>102.9</v>
+        <v>102.5</v>
       </c>
       <c r="I263" t="n">
-        <v>102.2</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>109.9</v>
+        <v>109.6</v>
       </c>
       <c r="C264" t="n">
-        <v>86.3</v>
+        <v>83.2</v>
       </c>
       <c r="D264" t="n">
         <v>101.1</v>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
-        <v>109.2</v>
+        <v>110.6</v>
       </c>
       <c r="G264" t="n">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H264" t="n">
-        <v>103.2</v>
+        <v>102.7</v>
       </c>
       <c r="I264" t="n">
-        <v>101.8</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>109.8</v>
+        <v>109.4</v>
       </c>
       <c r="C265" t="n">
-        <v>84.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="D265" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>109.6</v>
+        <v>110.8</v>
       </c>
       <c r="G265" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H265" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="I265" t="n">
-        <v>101.3</v>
+        <v>105.6</v>
       </c>
     </row>
   </sheetData>
